--- a/src/main/resources/com/relative/brecreditosnuevos/matrices/Plazos.xlsx
+++ b/src/main/resources/com/relative/brecreditosnuevos/matrices/Plazos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\extre\Documents\proyectos\proyectos drools\quski-bre\Matrices\Produccion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\PROYECTOS\QUSKI\BRE\MATRICES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0271FA3D-54E5-4935-BCEE-37B1DA83F75A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6BFFCFE-F5E1-4945-B3CA-C434AC6A3633}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S8" authorId="0" shapeId="0" xr:uid="{50A30AD3-2805-4ECD-9D8A-D9B3CEDF9295}">
+    <comment ref="W8" authorId="0" shapeId="0" xr:uid="{50A30AD3-2805-4ECD-9D8A-D9B3CEDF9295}">
       <text>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="66">
   <si>
     <t>RuleSet</t>
   </si>
@@ -248,6 +248,45 @@
   </si>
   <si>
     <t>com.relative.brecreditosnuevos.objetosnegocio.Cliente,com.relative.brecreditosnuevos.objetosnegocio.Opcion,com.relative.brecreditosnuevos.objetosnegocio.OpcionesRenovacion,com.relative.brecreditosnuevos.objetosnegocio.VariablesNegocio</t>
+  </si>
+  <si>
+    <t>MO6</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>TIPO OFERTA</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>PORCENTAJE FLUJO PLANEADO</t>
+  </si>
+  <si>
+    <t>opcion.setTIPO_OFERTA("$param");</t>
+  </si>
+  <si>
+    <t>DIVIDENDO FLUJO PLANEADO</t>
+  </si>
+  <si>
+    <t>DIVIDENDOS PRORRATEO SERVICIOS DIFERIDO</t>
+  </si>
+  <si>
+    <t>opcion.setDIVIDENDOS_PRORRATEO_SERVICIOS_DIFERIDO("$param");</t>
+  </si>
+  <si>
+    <t>opcion.setPORCENTAJE_FLUJO_PLANEADO(Integer.valueOf($param));</t>
+  </si>
+  <si>
+    <t>opcion.setDIVIDENDO_FLUJO_PLANEADO(Integer.valueOf($param));</t>
+  </si>
+  <si>
+    <t>NUE</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
 </sst>
 </file>
@@ -375,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -410,20 +449,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -745,18 +781,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:W26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="19" width="20.77734375" customWidth="1"/>
+    <col min="1" max="23" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -780,8 +816,12 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -801,8 +841,12 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -826,8 +870,12 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -849,8 +897,12 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>4</v>
@@ -906,8 +958,20 @@
       <c r="S5" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="T5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="2" t="s">
@@ -933,8 +997,12 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
-    </row>
-    <row r="7" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="9" t="s">
@@ -986,10 +1054,22 @@
         <v>47</v>
       </c>
       <c r="S7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="W7" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>48</v>
       </c>
@@ -1045,10 +1125,22 @@
         <v>21</v>
       </c>
       <c r="S8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="U8" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="V8" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="W8" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>28</v>
       </c>
@@ -1103,9 +1195,21 @@
       <c r="R9" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S9" s="15"/>
-    </row>
-    <row r="10" spans="1:19" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="S9" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="T9" s="15">
+        <v>0</v>
+      </c>
+      <c r="U9" s="15">
+        <v>999</v>
+      </c>
+      <c r="V9" s="15">
+        <v>0</v>
+      </c>
+      <c r="W9" s="15"/>
+    </row>
+    <row r="10" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>28</v>
       </c>
@@ -1160,9 +1264,21 @@
       <c r="R10" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S10" s="15"/>
-    </row>
-    <row r="11" spans="1:19" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="S10" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="T10" s="15">
+        <v>0</v>
+      </c>
+      <c r="U10" s="15">
+        <v>999</v>
+      </c>
+      <c r="V10" s="15">
+        <v>0</v>
+      </c>
+      <c r="W10" s="15"/>
+    </row>
+    <row r="11" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>28</v>
       </c>
@@ -1217,9 +1333,21 @@
       <c r="R11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S11" s="15"/>
-    </row>
-    <row r="12" spans="1:19" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="S11" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="T11" s="15">
+        <v>0</v>
+      </c>
+      <c r="U11" s="15">
+        <v>999</v>
+      </c>
+      <c r="V11" s="15">
+        <v>0</v>
+      </c>
+      <c r="W11" s="15"/>
+    </row>
+    <row r="12" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>28</v>
       </c>
@@ -1274,9 +1402,21 @@
       <c r="R12" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S12" s="15"/>
-    </row>
-    <row r="13" spans="1:19" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="S12" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="T12" s="15">
+        <v>0</v>
+      </c>
+      <c r="U12" s="15">
+        <v>999</v>
+      </c>
+      <c r="V12" s="15">
+        <v>0</v>
+      </c>
+      <c r="W12" s="15"/>
+    </row>
+    <row r="13" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>28</v>
       </c>
@@ -1331,9 +1471,21 @@
       <c r="R13" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S13" s="15"/>
-    </row>
-    <row r="14" spans="1:19" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="S13" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="T13" s="15">
+        <v>0</v>
+      </c>
+      <c r="U13" s="15">
+        <v>999</v>
+      </c>
+      <c r="V13" s="15">
+        <v>0</v>
+      </c>
+      <c r="W13" s="15"/>
+    </row>
+    <row r="14" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>28</v>
       </c>
@@ -1388,9 +1540,21 @@
       <c r="R14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S14" s="15"/>
-    </row>
-    <row r="15" spans="1:19" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="S14" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="T14" s="15">
+        <v>0</v>
+      </c>
+      <c r="U14" s="15">
+        <v>999</v>
+      </c>
+      <c r="V14" s="15">
+        <v>0</v>
+      </c>
+      <c r="W14" s="15"/>
+    </row>
+    <row r="15" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>28</v>
       </c>
@@ -1445,7 +1609,778 @@
       <c r="R15" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S15" s="15"/>
+      <c r="S15" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="T15" s="15">
+        <v>0</v>
+      </c>
+      <c r="U15" s="15">
+        <v>999</v>
+      </c>
+      <c r="V15" s="15">
+        <v>0</v>
+      </c>
+      <c r="W15" s="15"/>
+    </row>
+    <row r="16" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0</v>
+      </c>
+      <c r="F16" s="15">
+        <v>7</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="O16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="P16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="R16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="S16" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="T16" s="15">
+        <v>90</v>
+      </c>
+      <c r="U16" s="15">
+        <v>999</v>
+      </c>
+      <c r="V16" s="15">
+        <v>6</v>
+      </c>
+      <c r="W16" s="15"/>
+    </row>
+    <row r="17" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="14">
+        <v>0</v>
+      </c>
+      <c r="F17" s="15">
+        <v>11</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="O17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="P17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="R17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="S17" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="T17" s="15">
+        <v>50</v>
+      </c>
+      <c r="U17" s="15">
+        <v>999</v>
+      </c>
+      <c r="V17" s="15">
+        <v>0</v>
+      </c>
+      <c r="W17" s="15"/>
+    </row>
+    <row r="18" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="14">
+        <v>0</v>
+      </c>
+      <c r="F18" s="15">
+        <v>2</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="O18" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="P18" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q18" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="R18" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="S18" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="T18" s="15">
+        <v>0</v>
+      </c>
+      <c r="U18" s="15">
+        <v>999</v>
+      </c>
+      <c r="V18" s="15">
+        <v>0</v>
+      </c>
+      <c r="W18" s="15"/>
+    </row>
+    <row r="19" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="14">
+        <v>0</v>
+      </c>
+      <c r="F19" s="15">
+        <v>3</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="O19" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="P19" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q19" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="R19" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="S19" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="T19" s="15">
+        <v>0</v>
+      </c>
+      <c r="U19" s="15">
+        <v>999</v>
+      </c>
+      <c r="V19" s="15">
+        <v>0</v>
+      </c>
+      <c r="W19" s="15"/>
+    </row>
+    <row r="20" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="14">
+        <v>0</v>
+      </c>
+      <c r="F20" s="15">
+        <v>4</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="P20" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q20" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="R20" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="S20" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="T20" s="15">
+        <v>0</v>
+      </c>
+      <c r="U20" s="15">
+        <v>999</v>
+      </c>
+      <c r="V20" s="15">
+        <v>0</v>
+      </c>
+      <c r="W20" s="15"/>
+    </row>
+    <row r="21" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="14">
+        <v>0</v>
+      </c>
+      <c r="F21" s="15">
+        <v>6</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="O21" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="P21" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q21" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="R21" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="S21" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="T21" s="15">
+        <v>0</v>
+      </c>
+      <c r="U21" s="15">
+        <v>999</v>
+      </c>
+      <c r="V21" s="15">
+        <v>0</v>
+      </c>
+      <c r="W21" s="15"/>
+    </row>
+    <row r="22" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="14">
+        <v>0</v>
+      </c>
+      <c r="F22" s="15">
+        <v>9</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="O22" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="P22" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q22" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="R22" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="S22" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="T22" s="15">
+        <v>0</v>
+      </c>
+      <c r="U22" s="15">
+        <v>999</v>
+      </c>
+      <c r="V22" s="15">
+        <v>0</v>
+      </c>
+      <c r="W22" s="15"/>
+    </row>
+    <row r="23" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="14">
+        <v>0</v>
+      </c>
+      <c r="F23" s="15">
+        <v>12</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M23" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N23" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="O23" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="P23" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q23" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="R23" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="S23" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="T23" s="15">
+        <v>0</v>
+      </c>
+      <c r="U23" s="15">
+        <v>999</v>
+      </c>
+      <c r="V23" s="15">
+        <v>0</v>
+      </c>
+      <c r="W23" s="15"/>
+    </row>
+    <row r="24" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="14">
+        <v>1500</v>
+      </c>
+      <c r="F24" s="15">
+        <v>18</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="O24" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="P24" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q24" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="R24" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="S24" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="T24" s="15">
+        <v>0</v>
+      </c>
+      <c r="U24" s="15">
+        <v>999</v>
+      </c>
+      <c r="V24" s="15">
+        <v>0</v>
+      </c>
+      <c r="W24" s="15"/>
+    </row>
+    <row r="25" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="14">
+        <v>0</v>
+      </c>
+      <c r="F25" s="15">
+        <v>7</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L25" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N25" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="O25" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="P25" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q25" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="R25" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="S25" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="T25" s="15">
+        <v>90</v>
+      </c>
+      <c r="U25" s="15">
+        <v>999</v>
+      </c>
+      <c r="V25" s="15">
+        <v>6</v>
+      </c>
+      <c r="W25" s="15"/>
+    </row>
+    <row r="26" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="14">
+        <v>0</v>
+      </c>
+      <c r="F26" s="15">
+        <v>11</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M26" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N26" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="O26" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="P26" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q26" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="R26" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="S26" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="T26" s="15">
+        <v>50</v>
+      </c>
+      <c r="U26" s="15">
+        <v>999</v>
+      </c>
+      <c r="V26" s="15">
+        <v>0</v>
+      </c>
+      <c r="W26" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/com/relative/brecreditosnuevos/matrices/Plazos.xlsx
+++ b/src/main/resources/com/relative/brecreditosnuevos/matrices/Plazos.xlsx
@@ -598,8 +598,8 @@
   </sheetPr>
   <dimension ref="A1:W81"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G74" activeCellId="0" sqref="G74:G81"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K60" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P74" activeCellId="0" sqref="P74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="W26" s="15"/>
     </row>
-    <row r="27" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="12" t="s">
         <v>54</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>58</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I27" s="15" t="s">
         <v>60</v>
@@ -2259,7 +2259,7 @@
         <v>61</v>
       </c>
       <c r="T27" s="15" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U27" s="15" t="n">
         <v>999</v>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="W27" s="15"/>
     </row>
-    <row r="28" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="12" t="s">
         <v>54</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>58</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I28" s="15" t="s">
         <v>60</v>
@@ -2328,7 +2328,7 @@
         <v>61</v>
       </c>
       <c r="T28" s="15" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U28" s="15" t="n">
         <v>999</v>
@@ -2338,7 +2338,7 @@
       </c>
       <c r="W28" s="15"/>
     </row>
-    <row r="29" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="12" t="s">
         <v>54</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>58</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I29" s="15" t="s">
         <v>60</v>
@@ -2397,7 +2397,7 @@
         <v>61</v>
       </c>
       <c r="T29" s="15" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U29" s="15" t="n">
         <v>999</v>
@@ -2407,7 +2407,7 @@
       </c>
       <c r="W29" s="15"/>
     </row>
-    <row r="30" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="12" t="s">
         <v>54</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>61</v>
       </c>
       <c r="T30" s="15" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U30" s="15" t="n">
         <v>999</v>
@@ -2535,7 +2535,7 @@
         <v>61</v>
       </c>
       <c r="T31" s="15" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="U31" s="15" t="n">
         <v>999</v>
@@ -2604,7 +2604,7 @@
         <v>61</v>
       </c>
       <c r="T32" s="15" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U32" s="15" t="n">
         <v>999</v>
@@ -2742,7 +2742,7 @@
         <v>61</v>
       </c>
       <c r="T34" s="15" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U34" s="15" t="n">
         <v>999</v>
@@ -2811,7 +2811,7 @@
         <v>64</v>
       </c>
       <c r="T35" s="15" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="U35" s="15" t="n">
         <v>999</v>
@@ -2880,7 +2880,7 @@
         <v>64</v>
       </c>
       <c r="T36" s="15" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="U36" s="15" t="n">
         <v>999</v>
@@ -2949,7 +2949,7 @@
         <v>64</v>
       </c>
       <c r="T37" s="15" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U37" s="15" t="n">
         <v>999</v>
@@ -2959,7 +2959,7 @@
       </c>
       <c r="W37" s="15"/>
     </row>
-    <row r="38" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="12" t="s">
         <v>54</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>58</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I38" s="15" t="s">
         <v>60</v>
@@ -3018,7 +3018,7 @@
         <v>61</v>
       </c>
       <c r="T38" s="15" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U38" s="15" t="n">
         <v>999</v>
@@ -3028,7 +3028,7 @@
       </c>
       <c r="W38" s="15"/>
     </row>
-    <row r="39" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="12" t="s">
         <v>54</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>58</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I39" s="15" t="s">
         <v>60</v>
@@ -3087,7 +3087,7 @@
         <v>61</v>
       </c>
       <c r="T39" s="15" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U39" s="15" t="n">
         <v>999</v>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="W39" s="15"/>
     </row>
-    <row r="40" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="12" t="s">
         <v>54</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>58</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I40" s="15" t="s">
         <v>60</v>
@@ -3156,7 +3156,7 @@
         <v>61</v>
       </c>
       <c r="T40" s="15" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U40" s="15" t="n">
         <v>999</v>
@@ -3225,7 +3225,7 @@
         <v>61</v>
       </c>
       <c r="T41" s="15" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U41" s="15" t="n">
         <v>999</v>
@@ -3294,7 +3294,7 @@
         <v>61</v>
       </c>
       <c r="T42" s="15" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="U42" s="15" t="n">
         <v>999</v>
@@ -3363,7 +3363,7 @@
         <v>61</v>
       </c>
       <c r="T43" s="15" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U43" s="15" t="n">
         <v>999</v>
@@ -3501,7 +3501,7 @@
         <v>61</v>
       </c>
       <c r="T45" s="15" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U45" s="15" t="n">
         <v>999</v>
@@ -3570,7 +3570,7 @@
         <v>64</v>
       </c>
       <c r="T46" s="15" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="U46" s="15" t="n">
         <v>999</v>
@@ -3639,7 +3639,7 @@
         <v>64</v>
       </c>
       <c r="T47" s="15" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="U47" s="15" t="n">
         <v>999</v>
@@ -3708,7 +3708,7 @@
         <v>64</v>
       </c>
       <c r="T48" s="15" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U48" s="15" t="n">
         <v>999</v>
@@ -3718,7 +3718,7 @@
       </c>
       <c r="W48" s="15"/>
     </row>
-    <row r="49" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="12" t="s">
         <v>54</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>58</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I49" s="15" t="s">
         <v>60</v>
@@ -3777,7 +3777,7 @@
         <v>61</v>
       </c>
       <c r="T49" s="15" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U49" s="15" t="n">
         <v>999</v>
@@ -3787,7 +3787,7 @@
       </c>
       <c r="W49" s="15"/>
     </row>
-    <row r="50" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="12" t="s">
         <v>54</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>58</v>
       </c>
       <c r="H50" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I50" s="15" t="s">
         <v>60</v>
@@ -3846,7 +3846,7 @@
         <v>61</v>
       </c>
       <c r="T50" s="15" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U50" s="15" t="n">
         <v>999</v>
@@ -3856,7 +3856,7 @@
       </c>
       <c r="W50" s="15"/>
     </row>
-    <row r="51" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="12" t="s">
         <v>54</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>58</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I51" s="15" t="s">
         <v>60</v>
@@ -3915,7 +3915,7 @@
         <v>61</v>
       </c>
       <c r="T51" s="15" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U51" s="15" t="n">
         <v>999</v>
@@ -3984,7 +3984,7 @@
         <v>61</v>
       </c>
       <c r="T52" s="15" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U52" s="15" t="n">
         <v>999</v>
@@ -4053,7 +4053,7 @@
         <v>61</v>
       </c>
       <c r="T53" s="15" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="U53" s="15" t="n">
         <v>999</v>
@@ -4122,7 +4122,7 @@
         <v>61</v>
       </c>
       <c r="T54" s="15" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U54" s="15" t="n">
         <v>999</v>
@@ -4260,7 +4260,7 @@
         <v>61</v>
       </c>
       <c r="T56" s="15" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U56" s="15" t="n">
         <v>999</v>
@@ -4329,7 +4329,7 @@
         <v>64</v>
       </c>
       <c r="T57" s="15" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="U57" s="15" t="n">
         <v>999</v>
@@ -4398,7 +4398,7 @@
         <v>64</v>
       </c>
       <c r="T58" s="15" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="U58" s="15" t="n">
         <v>999</v>
@@ -4467,7 +4467,7 @@
         <v>64</v>
       </c>
       <c r="T59" s="15" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U59" s="15" t="n">
         <v>999</v>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="W59" s="15"/>
     </row>
-    <row r="60" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="12" t="s">
         <v>54</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>58</v>
       </c>
       <c r="H60" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I60" s="15" t="s">
         <v>60</v>
@@ -4536,7 +4536,7 @@
         <v>61</v>
       </c>
       <c r="T60" s="15" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U60" s="15" t="n">
         <v>999</v>
@@ -4546,7 +4546,7 @@
       </c>
       <c r="W60" s="15"/>
     </row>
-    <row r="61" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="12" t="s">
         <v>54</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>58</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I61" s="15" t="s">
         <v>60</v>
@@ -4605,7 +4605,7 @@
         <v>61</v>
       </c>
       <c r="T61" s="15" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U61" s="15" t="n">
         <v>999</v>
@@ -4615,7 +4615,7 @@
       </c>
       <c r="W61" s="15"/>
     </row>
-    <row r="62" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="12" t="s">
         <v>54</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>58</v>
       </c>
       <c r="H62" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I62" s="15" t="s">
         <v>60</v>
@@ -4674,7 +4674,7 @@
         <v>61</v>
       </c>
       <c r="T62" s="15" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U62" s="15" t="n">
         <v>999</v>
@@ -4743,7 +4743,7 @@
         <v>61</v>
       </c>
       <c r="T63" s="15" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U63" s="15" t="n">
         <v>999</v>
@@ -4812,7 +4812,7 @@
         <v>61</v>
       </c>
       <c r="T64" s="15" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="U64" s="15" t="n">
         <v>999</v>
@@ -4881,7 +4881,7 @@
         <v>61</v>
       </c>
       <c r="T65" s="15" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U65" s="15" t="n">
         <v>999</v>
@@ -5019,7 +5019,7 @@
         <v>61</v>
       </c>
       <c r="T67" s="15" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U67" s="15" t="n">
         <v>999</v>
@@ -5088,7 +5088,7 @@
         <v>64</v>
       </c>
       <c r="T68" s="15" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="U68" s="15" t="n">
         <v>999</v>
@@ -5157,7 +5157,7 @@
         <v>64</v>
       </c>
       <c r="T69" s="15" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="U69" s="15" t="n">
         <v>999</v>
@@ -5226,7 +5226,7 @@
         <v>64</v>
       </c>
       <c r="T70" s="15" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U70" s="15" t="n">
         <v>999</v>
@@ -5236,7 +5236,7 @@
       </c>
       <c r="W70" s="15"/>
     </row>
-    <row r="71" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="12" t="s">
         <v>54</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>58</v>
       </c>
       <c r="H71" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I71" s="15" t="s">
         <v>60</v>
@@ -5295,7 +5295,7 @@
         <v>61</v>
       </c>
       <c r="T71" s="15" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U71" s="15" t="n">
         <v>999</v>
@@ -5305,7 +5305,7 @@
       </c>
       <c r="W71" s="15"/>
     </row>
-    <row r="72" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="12" t="s">
         <v>54</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>58</v>
       </c>
       <c r="H72" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I72" s="15" t="s">
         <v>60</v>
@@ -5364,7 +5364,7 @@
         <v>61</v>
       </c>
       <c r="T72" s="15" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U72" s="15" t="n">
         <v>999</v>
@@ -5374,7 +5374,7 @@
       </c>
       <c r="W72" s="15"/>
     </row>
-    <row r="73" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="12" t="s">
         <v>54</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v>58</v>
       </c>
       <c r="H73" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I73" s="15" t="s">
         <v>60</v>
@@ -5433,7 +5433,7 @@
         <v>61</v>
       </c>
       <c r="T73" s="15" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U73" s="15" t="n">
         <v>999</v>
@@ -5502,7 +5502,7 @@
         <v>61</v>
       </c>
       <c r="T74" s="15" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U74" s="15" t="n">
         <v>999</v>
@@ -5571,7 +5571,7 @@
         <v>61</v>
       </c>
       <c r="T75" s="15" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="U75" s="15" t="n">
         <v>999</v>
@@ -5640,7 +5640,7 @@
         <v>61</v>
       </c>
       <c r="T76" s="15" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U76" s="15" t="n">
         <v>999</v>
@@ -5778,7 +5778,7 @@
         <v>61</v>
       </c>
       <c r="T78" s="15" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U78" s="15" t="n">
         <v>999</v>
@@ -5847,7 +5847,7 @@
         <v>64</v>
       </c>
       <c r="T79" s="15" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="U79" s="15" t="n">
         <v>999</v>
@@ -5916,7 +5916,7 @@
         <v>64</v>
       </c>
       <c r="T80" s="15" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="U80" s="15" t="n">
         <v>999</v>
@@ -5985,7 +5985,7 @@
         <v>64</v>
       </c>
       <c r="T81" s="15" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U81" s="15" t="n">
         <v>999</v>

--- a/src/main/resources/com/relative/brecreditosnuevos/matrices/Plazos.xlsx
+++ b/src/main/resources/com/relative/brecreditosnuevos/matrices/Plazos.xlsx
@@ -596,10 +596,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W81"/>
+  <dimension ref="A1:W115"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K60" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P74" activeCellId="0" sqref="P74"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E23" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J37" activeCellId="0" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2752,7 +2752,7 @@
       </c>
       <c r="W34" s="15"/>
     </row>
-    <row r="35" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="12" t="s">
         <v>54</v>
       </c>
@@ -2821,7 +2821,7 @@
       </c>
       <c r="W35" s="15"/>
     </row>
-    <row r="36" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="12" t="s">
         <v>54</v>
       </c>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="W36" s="15"/>
     </row>
-    <row r="37" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="12" t="s">
         <v>54</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>60</v>
       </c>
       <c r="J37" s="15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K37" s="15" t="s">
         <v>60</v>
@@ -2946,7 +2946,7 @@
         <v>60</v>
       </c>
       <c r="S37" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="T37" s="15" t="n">
         <v>100</v>
@@ -3442,7 +3442,7 @@
       </c>
       <c r="W44" s="15"/>
     </row>
-    <row r="45" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="12" t="s">
         <v>54</v>
       </c>
@@ -3649,7 +3649,7 @@
       </c>
       <c r="W47" s="15"/>
     </row>
-    <row r="48" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="12" t="s">
         <v>54</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>60</v>
       </c>
       <c r="J48" s="15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K48" s="15" t="s">
         <v>60</v>
@@ -3705,7 +3705,7 @@
         <v>60</v>
       </c>
       <c r="S48" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="T48" s="15" t="n">
         <v>100</v>
@@ -4270,7 +4270,7 @@
       </c>
       <c r="W56" s="15"/>
     </row>
-    <row r="57" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="12" t="s">
         <v>54</v>
       </c>
@@ -4408,7 +4408,7 @@
       </c>
       <c r="W58" s="15"/>
     </row>
-    <row r="59" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="12" t="s">
         <v>54</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>60</v>
       </c>
       <c r="J59" s="15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K59" s="15" t="s">
         <v>60</v>
@@ -4464,7 +4464,7 @@
         <v>60</v>
       </c>
       <c r="S59" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="T59" s="15" t="n">
         <v>100</v>
@@ -5029,7 +5029,7 @@
       </c>
       <c r="W67" s="15"/>
     </row>
-    <row r="68" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="12" t="s">
         <v>54</v>
       </c>
@@ -5167,7 +5167,7 @@
       </c>
       <c r="W69" s="15"/>
     </row>
-    <row r="70" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="12" t="s">
         <v>54</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>60</v>
       </c>
       <c r="J70" s="15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K70" s="15" t="s">
         <v>60</v>
@@ -5223,7 +5223,7 @@
         <v>60</v>
       </c>
       <c r="S70" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="T70" s="15" t="n">
         <v>100</v>
@@ -5788,7 +5788,7 @@
       </c>
       <c r="W78" s="15"/>
     </row>
-    <row r="79" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="12" t="s">
         <v>54</v>
       </c>
@@ -5926,7 +5926,7 @@
       </c>
       <c r="W80" s="15"/>
     </row>
-    <row r="81" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="12" t="s">
         <v>54</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>60</v>
       </c>
       <c r="J81" s="15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K81" s="15" t="s">
         <v>60</v>
@@ -5982,7 +5982,7 @@
         <v>60</v>
       </c>
       <c r="S81" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="T81" s="15" t="n">
         <v>100</v>
@@ -5995,6 +5995,7 @@
       </c>
       <c r="W81" s="15"/>
     </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/src/main/resources/com/relative/brecreditosnuevos/matrices/Plazos.xlsx
+++ b/src/main/resources/com/relative/brecreditosnuevos/matrices/Plazos.xlsx
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="73">
   <si>
     <t xml:space="preserve">RuleSet</t>
   </si>
@@ -288,6 +288,12 @@
   </si>
   <si>
     <t xml:space="preserve">QSK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
   </si>
   <si>
     <t xml:space="preserve">QSK2</t>
@@ -598,8 +604,8 @@
   </sheetPr>
   <dimension ref="A1:W115"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E23" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J37" activeCellId="0" sqref="J37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O19" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S25" activeCellId="0" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2256,7 +2262,7 @@
         <v>60</v>
       </c>
       <c r="S27" s="15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="T27" s="15" t="n">
         <v>0</v>
@@ -2325,7 +2331,7 @@
         <v>60</v>
       </c>
       <c r="S28" s="15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="T28" s="15" t="n">
         <v>0</v>
@@ -2394,7 +2400,7 @@
         <v>60</v>
       </c>
       <c r="S29" s="15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="T29" s="15" t="n">
         <v>0</v>
@@ -2407,7 +2413,7 @@
       </c>
       <c r="W29" s="15"/>
     </row>
-    <row r="30" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="12" t="s">
         <v>54</v>
       </c>
@@ -2463,10 +2469,10 @@
         <v>60</v>
       </c>
       <c r="S30" s="15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="T30" s="15" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U30" s="15" t="n">
         <v>999</v>
@@ -2532,7 +2538,7 @@
         <v>60</v>
       </c>
       <c r="S31" s="15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="T31" s="15" t="n">
         <v>10</v>
@@ -2545,7 +2551,7 @@
       </c>
       <c r="W31" s="15"/>
     </row>
-    <row r="32" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="12" t="s">
         <v>54</v>
       </c>
@@ -2601,10 +2607,10 @@
         <v>60</v>
       </c>
       <c r="S32" s="15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="T32" s="15" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U32" s="15" t="n">
         <v>999</v>
@@ -2670,7 +2676,7 @@
         <v>60</v>
       </c>
       <c r="S33" s="15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="T33" s="15" t="n">
         <v>50</v>
@@ -2683,7 +2689,7 @@
       </c>
       <c r="W33" s="15"/>
     </row>
-    <row r="34" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="12" t="s">
         <v>54</v>
       </c>
@@ -2739,10 +2745,10 @@
         <v>60</v>
       </c>
       <c r="S34" s="15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="T34" s="15" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U34" s="15" t="n">
         <v>999</v>
@@ -2752,7 +2758,7 @@
       </c>
       <c r="W34" s="15"/>
     </row>
-    <row r="35" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="12" t="s">
         <v>54</v>
       </c>
@@ -2808,10 +2814,10 @@
         <v>60</v>
       </c>
       <c r="S35" s="15" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="T35" s="15" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="U35" s="15" t="n">
         <v>999</v>
@@ -2821,7 +2827,7 @@
       </c>
       <c r="W35" s="15"/>
     </row>
-    <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="12" t="s">
         <v>54</v>
       </c>
@@ -2877,10 +2883,10 @@
         <v>60</v>
       </c>
       <c r="S36" s="15" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="T36" s="15" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="U36" s="15" t="n">
         <v>999</v>
@@ -2946,10 +2952,10 @@
         <v>60</v>
       </c>
       <c r="S37" s="15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="T37" s="15" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U37" s="15" t="n">
         <v>999</v>
@@ -2967,7 +2973,7 @@
         <v>55</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>57</v>
@@ -3015,7 +3021,7 @@
         <v>60</v>
       </c>
       <c r="S38" s="15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="T38" s="15" t="n">
         <v>0</v>
@@ -3036,7 +3042,7 @@
         <v>55</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>57</v>
@@ -3084,7 +3090,7 @@
         <v>60</v>
       </c>
       <c r="S39" s="15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="T39" s="15" t="n">
         <v>0</v>
@@ -3105,7 +3111,7 @@
         <v>55</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>57</v>
@@ -3153,7 +3159,7 @@
         <v>60</v>
       </c>
       <c r="S40" s="15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="T40" s="15" t="n">
         <v>0</v>
@@ -3166,7 +3172,7 @@
       </c>
       <c r="W40" s="15"/>
     </row>
-    <row r="41" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="12" t="s">
         <v>54</v>
       </c>
@@ -3174,7 +3180,7 @@
         <v>55</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>57</v>
@@ -3222,10 +3228,10 @@
         <v>60</v>
       </c>
       <c r="S41" s="15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="T41" s="15" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U41" s="15" t="n">
         <v>999</v>
@@ -3243,7 +3249,7 @@
         <v>55</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>57</v>
@@ -3291,7 +3297,7 @@
         <v>60</v>
       </c>
       <c r="S42" s="15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="T42" s="15" t="n">
         <v>10</v>
@@ -3304,7 +3310,7 @@
       </c>
       <c r="W42" s="15"/>
     </row>
-    <row r="43" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="12" t="s">
         <v>54</v>
       </c>
@@ -3312,7 +3318,7 @@
         <v>55</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>57</v>
@@ -3360,10 +3366,10 @@
         <v>60</v>
       </c>
       <c r="S43" s="15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="T43" s="15" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U43" s="15" t="n">
         <v>999</v>
@@ -3381,7 +3387,7 @@
         <v>55</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>57</v>
@@ -3429,7 +3435,7 @@
         <v>60</v>
       </c>
       <c r="S44" s="15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="T44" s="15" t="n">
         <v>50</v>
@@ -3450,7 +3456,7 @@
         <v>55</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>57</v>
@@ -3498,10 +3504,10 @@
         <v>60</v>
       </c>
       <c r="S45" s="15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="T45" s="15" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U45" s="15" t="n">
         <v>999</v>
@@ -3511,7 +3517,7 @@
       </c>
       <c r="W45" s="15"/>
     </row>
-    <row r="46" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="12" t="s">
         <v>54</v>
       </c>
@@ -3519,7 +3525,7 @@
         <v>55</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>57</v>
@@ -3567,10 +3573,10 @@
         <v>60</v>
       </c>
       <c r="S46" s="15" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="T46" s="15" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="U46" s="15" t="n">
         <v>999</v>
@@ -3580,7 +3586,7 @@
       </c>
       <c r="W46" s="15"/>
     </row>
-    <row r="47" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="12" t="s">
         <v>54</v>
       </c>
@@ -3588,7 +3594,7 @@
         <v>55</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>57</v>
@@ -3636,10 +3642,10 @@
         <v>60</v>
       </c>
       <c r="S47" s="15" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="T47" s="15" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="U47" s="15" t="n">
         <v>999</v>
@@ -3657,7 +3663,7 @@
         <v>55</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>57</v>
@@ -3705,10 +3711,10 @@
         <v>60</v>
       </c>
       <c r="S48" s="15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="T48" s="15" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U48" s="15" t="n">
         <v>999</v>
@@ -3726,7 +3732,7 @@
         <v>55</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>57</v>
@@ -3774,7 +3780,7 @@
         <v>60</v>
       </c>
       <c r="S49" s="15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="T49" s="15" t="n">
         <v>0</v>
@@ -3795,7 +3801,7 @@
         <v>55</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D50" s="14" t="s">
         <v>57</v>
@@ -3843,7 +3849,7 @@
         <v>60</v>
       </c>
       <c r="S50" s="15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="T50" s="15" t="n">
         <v>0</v>
@@ -3864,7 +3870,7 @@
         <v>55</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D51" s="14" t="s">
         <v>57</v>
@@ -3912,7 +3918,7 @@
         <v>60</v>
       </c>
       <c r="S51" s="15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="T51" s="15" t="n">
         <v>0</v>
@@ -3925,7 +3931,7 @@
       </c>
       <c r="W51" s="15"/>
     </row>
-    <row r="52" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="12" t="s">
         <v>54</v>
       </c>
@@ -3933,7 +3939,7 @@
         <v>55</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D52" s="14" t="s">
         <v>57</v>
@@ -3981,10 +3987,10 @@
         <v>60</v>
       </c>
       <c r="S52" s="15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="T52" s="15" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U52" s="15" t="n">
         <v>999</v>
@@ -4002,7 +4008,7 @@
         <v>55</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D53" s="14" t="s">
         <v>57</v>
@@ -4050,7 +4056,7 @@
         <v>60</v>
       </c>
       <c r="S53" s="15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="T53" s="15" t="n">
         <v>10</v>
@@ -4063,7 +4069,7 @@
       </c>
       <c r="W53" s="15"/>
     </row>
-    <row r="54" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="12" t="s">
         <v>54</v>
       </c>
@@ -4071,7 +4077,7 @@
         <v>55</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D54" s="14" t="s">
         <v>57</v>
@@ -4119,10 +4125,10 @@
         <v>60</v>
       </c>
       <c r="S54" s="15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="T54" s="15" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U54" s="15" t="n">
         <v>999</v>
@@ -4140,7 +4146,7 @@
         <v>55</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D55" s="14" t="s">
         <v>57</v>
@@ -4188,7 +4194,7 @@
         <v>60</v>
       </c>
       <c r="S55" s="15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="T55" s="15" t="n">
         <v>50</v>
@@ -4201,7 +4207,7 @@
       </c>
       <c r="W55" s="15"/>
     </row>
-    <row r="56" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="12" t="s">
         <v>54</v>
       </c>
@@ -4209,7 +4215,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D56" s="14" t="s">
         <v>57</v>
@@ -4257,10 +4263,10 @@
         <v>60</v>
       </c>
       <c r="S56" s="15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="T56" s="15" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U56" s="15" t="n">
         <v>999</v>
@@ -4278,7 +4284,7 @@
         <v>55</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D57" s="14" t="s">
         <v>57</v>
@@ -4326,10 +4332,10 @@
         <v>60</v>
       </c>
       <c r="S57" s="15" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="T57" s="15" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="U57" s="15" t="n">
         <v>999</v>
@@ -4339,7 +4345,7 @@
       </c>
       <c r="W57" s="15"/>
     </row>
-    <row r="58" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="12" t="s">
         <v>54</v>
       </c>
@@ -4347,7 +4353,7 @@
         <v>55</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D58" s="14" t="s">
         <v>57</v>
@@ -4395,10 +4401,10 @@
         <v>60</v>
       </c>
       <c r="S58" s="15" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="T58" s="15" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="U58" s="15" t="n">
         <v>999</v>
@@ -4416,7 +4422,7 @@
         <v>55</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D59" s="14" t="s">
         <v>57</v>
@@ -4464,10 +4470,10 @@
         <v>60</v>
       </c>
       <c r="S59" s="15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="T59" s="15" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U59" s="15" t="n">
         <v>999</v>
@@ -4485,7 +4491,7 @@
         <v>55</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D60" s="14" t="s">
         <v>57</v>
@@ -4533,7 +4539,7 @@
         <v>60</v>
       </c>
       <c r="S60" s="15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="T60" s="15" t="n">
         <v>0</v>
@@ -4554,7 +4560,7 @@
         <v>55</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D61" s="14" t="s">
         <v>57</v>
@@ -4602,7 +4608,7 @@
         <v>60</v>
       </c>
       <c r="S61" s="15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="T61" s="15" t="n">
         <v>0</v>
@@ -4623,7 +4629,7 @@
         <v>55</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D62" s="14" t="s">
         <v>57</v>
@@ -4671,7 +4677,7 @@
         <v>60</v>
       </c>
       <c r="S62" s="15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="T62" s="15" t="n">
         <v>0</v>
@@ -4684,7 +4690,7 @@
       </c>
       <c r="W62" s="15"/>
     </row>
-    <row r="63" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="12" t="s">
         <v>54</v>
       </c>
@@ -4692,7 +4698,7 @@
         <v>55</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D63" s="14" t="s">
         <v>57</v>
@@ -4740,10 +4746,10 @@
         <v>60</v>
       </c>
       <c r="S63" s="15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="T63" s="15" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U63" s="15" t="n">
         <v>999</v>
@@ -4761,7 +4767,7 @@
         <v>55</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D64" s="14" t="s">
         <v>57</v>
@@ -4809,7 +4815,7 @@
         <v>60</v>
       </c>
       <c r="S64" s="15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="T64" s="15" t="n">
         <v>10</v>
@@ -4822,7 +4828,7 @@
       </c>
       <c r="W64" s="15"/>
     </row>
-    <row r="65" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="12" t="s">
         <v>54</v>
       </c>
@@ -4830,7 +4836,7 @@
         <v>55</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D65" s="14" t="s">
         <v>57</v>
@@ -4878,10 +4884,10 @@
         <v>60</v>
       </c>
       <c r="S65" s="15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="T65" s="15" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U65" s="15" t="n">
         <v>999</v>
@@ -4899,7 +4905,7 @@
         <v>55</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D66" s="14" t="s">
         <v>57</v>
@@ -4947,7 +4953,7 @@
         <v>60</v>
       </c>
       <c r="S66" s="15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="T66" s="15" t="n">
         <v>50</v>
@@ -4960,7 +4966,7 @@
       </c>
       <c r="W66" s="15"/>
     </row>
-    <row r="67" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="12" t="s">
         <v>54</v>
       </c>
@@ -4968,7 +4974,7 @@
         <v>55</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D67" s="14" t="s">
         <v>57</v>
@@ -5016,10 +5022,10 @@
         <v>60</v>
       </c>
       <c r="S67" s="15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="T67" s="15" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U67" s="15" t="n">
         <v>999</v>
@@ -5037,7 +5043,7 @@
         <v>55</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D68" s="14" t="s">
         <v>57</v>
@@ -5085,10 +5091,10 @@
         <v>60</v>
       </c>
       <c r="S68" s="15" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="T68" s="15" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="U68" s="15" t="n">
         <v>999</v>
@@ -5098,7 +5104,7 @@
       </c>
       <c r="W68" s="15"/>
     </row>
-    <row r="69" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="12" t="s">
         <v>54</v>
       </c>
@@ -5106,7 +5112,7 @@
         <v>55</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D69" s="14" t="s">
         <v>57</v>
@@ -5154,10 +5160,10 @@
         <v>60</v>
       </c>
       <c r="S69" s="15" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="T69" s="15" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="U69" s="15" t="n">
         <v>999</v>
@@ -5175,7 +5181,7 @@
         <v>55</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D70" s="14" t="s">
         <v>57</v>
@@ -5223,10 +5229,10 @@
         <v>60</v>
       </c>
       <c r="S70" s="15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="T70" s="15" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U70" s="15" t="n">
         <v>999</v>
@@ -5244,7 +5250,7 @@
         <v>55</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D71" s="14" t="s">
         <v>57</v>
@@ -5292,7 +5298,7 @@
         <v>60</v>
       </c>
       <c r="S71" s="15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="T71" s="15" t="n">
         <v>0</v>
@@ -5313,7 +5319,7 @@
         <v>55</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D72" s="14" t="s">
         <v>57</v>
@@ -5361,7 +5367,7 @@
         <v>60</v>
       </c>
       <c r="S72" s="15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="T72" s="15" t="n">
         <v>0</v>
@@ -5382,7 +5388,7 @@
         <v>55</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D73" s="14" t="s">
         <v>57</v>
@@ -5430,7 +5436,7 @@
         <v>60</v>
       </c>
       <c r="S73" s="15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="T73" s="15" t="n">
         <v>0</v>
@@ -5443,7 +5449,7 @@
       </c>
       <c r="W73" s="15"/>
     </row>
-    <row r="74" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="12" t="s">
         <v>54</v>
       </c>
@@ -5451,7 +5457,7 @@
         <v>55</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D74" s="14" t="s">
         <v>57</v>
@@ -5499,10 +5505,10 @@
         <v>60</v>
       </c>
       <c r="S74" s="15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="T74" s="15" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U74" s="15" t="n">
         <v>999</v>
@@ -5520,7 +5526,7 @@
         <v>55</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D75" s="14" t="s">
         <v>57</v>
@@ -5568,7 +5574,7 @@
         <v>60</v>
       </c>
       <c r="S75" s="15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="T75" s="15" t="n">
         <v>10</v>
@@ -5581,7 +5587,7 @@
       </c>
       <c r="W75" s="15"/>
     </row>
-    <row r="76" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="12" t="s">
         <v>54</v>
       </c>
@@ -5589,7 +5595,7 @@
         <v>55</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D76" s="14" t="s">
         <v>57</v>
@@ -5637,10 +5643,10 @@
         <v>60</v>
       </c>
       <c r="S76" s="15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="T76" s="15" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U76" s="15" t="n">
         <v>999</v>
@@ -5658,7 +5664,7 @@
         <v>55</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D77" s="14" t="s">
         <v>57</v>
@@ -5706,7 +5712,7 @@
         <v>60</v>
       </c>
       <c r="S77" s="15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="T77" s="15" t="n">
         <v>50</v>
@@ -5719,7 +5725,7 @@
       </c>
       <c r="W77" s="15"/>
     </row>
-    <row r="78" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="12" t="s">
         <v>54</v>
       </c>
@@ -5727,7 +5733,7 @@
         <v>55</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D78" s="14" t="s">
         <v>57</v>
@@ -5775,10 +5781,10 @@
         <v>60</v>
       </c>
       <c r="S78" s="15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="T78" s="15" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U78" s="15" t="n">
         <v>999</v>
@@ -5796,7 +5802,7 @@
         <v>55</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D79" s="14" t="s">
         <v>57</v>
@@ -5844,10 +5850,10 @@
         <v>60</v>
       </c>
       <c r="S79" s="15" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="T79" s="15" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="U79" s="15" t="n">
         <v>999</v>
@@ -5857,7 +5863,7 @@
       </c>
       <c r="W79" s="15"/>
     </row>
-    <row r="80" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="12" t="s">
         <v>54</v>
       </c>
@@ -5865,7 +5871,7 @@
         <v>55</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D80" s="14" t="s">
         <v>57</v>
@@ -5913,10 +5919,10 @@
         <v>60</v>
       </c>
       <c r="S80" s="15" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="T80" s="15" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="U80" s="15" t="n">
         <v>999</v>
@@ -5934,7 +5940,7 @@
         <v>55</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D81" s="14" t="s">
         <v>57</v>
@@ -5982,10 +5988,10 @@
         <v>60</v>
       </c>
       <c r="S81" s="15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="T81" s="15" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U81" s="15" t="n">
         <v>999</v>

--- a/src/main/resources/com/relative/brecreditosnuevos/matrices/Plazos.xlsx
+++ b/src/main/resources/com/relative/brecreditosnuevos/matrices/Plazos.xlsx
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="73">
   <si>
     <t xml:space="preserve">RuleSet</t>
   </si>
@@ -604,8 +604,8 @@
   </sheetPr>
   <dimension ref="A1:W115"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O19" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S25" activeCellId="0" sqref="S25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M24" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U28" activeCellId="0" sqref="U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="W30" s="15"/>
     </row>
-    <row r="31" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="12" t="s">
         <v>54</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>60</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K31" s="15" t="s">
         <v>60</v>
@@ -2538,7 +2538,7 @@
         <v>60</v>
       </c>
       <c r="S31" s="15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T31" s="15" t="n">
         <v>10</v>
@@ -2547,7 +2547,7 @@
         <v>999</v>
       </c>
       <c r="V31" s="15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W31" s="15"/>
     </row>
@@ -2620,7 +2620,7 @@
       </c>
       <c r="W32" s="15"/>
     </row>
-    <row r="33" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="12" t="s">
         <v>54</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>60</v>
       </c>
       <c r="J33" s="15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K33" s="15" t="s">
         <v>60</v>
@@ -2676,7 +2676,7 @@
         <v>60</v>
       </c>
       <c r="S33" s="15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T33" s="15" t="n">
         <v>50</v>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="W34" s="15"/>
     </row>
-    <row r="35" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="12" t="s">
         <v>54</v>
       </c>
@@ -2822,12 +2822,12 @@
       <c r="U35" s="15" t="n">
         <v>999</v>
       </c>
-      <c r="V35" s="15" t="n">
-        <v>6</v>
+      <c r="V35" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="W35" s="15"/>
     </row>
-    <row r="36" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="12" t="s">
         <v>54</v>
       </c>
@@ -2891,8 +2891,8 @@
       <c r="U36" s="15" t="n">
         <v>999</v>
       </c>
-      <c r="V36" s="15" t="n">
-        <v>6</v>
+      <c r="V36" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="W36" s="15"/>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="W41" s="15"/>
     </row>
-    <row r="42" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="12" t="s">
         <v>54</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>60</v>
       </c>
       <c r="J42" s="15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K42" s="15" t="s">
         <v>60</v>
@@ -3297,7 +3297,7 @@
         <v>60</v>
       </c>
       <c r="S42" s="15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T42" s="15" t="n">
         <v>10</v>
@@ -3306,7 +3306,7 @@
         <v>999</v>
       </c>
       <c r="V42" s="15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W42" s="15"/>
     </row>
@@ -3379,7 +3379,7 @@
       </c>
       <c r="W43" s="15"/>
     </row>
-    <row r="44" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="12" t="s">
         <v>54</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>60</v>
       </c>
       <c r="J44" s="15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K44" s="15" t="s">
         <v>60</v>
@@ -3435,7 +3435,7 @@
         <v>60</v>
       </c>
       <c r="S44" s="15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T44" s="15" t="n">
         <v>50</v>
@@ -3581,8 +3581,8 @@
       <c r="U46" s="15" t="n">
         <v>999</v>
       </c>
-      <c r="V46" s="15" t="n">
-        <v>6</v>
+      <c r="V46" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="W46" s="15"/>
     </row>
@@ -3650,8 +3650,8 @@
       <c r="U47" s="15" t="n">
         <v>999</v>
       </c>
-      <c r="V47" s="15" t="n">
-        <v>6</v>
+      <c r="V47" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="W47" s="15"/>
     </row>
@@ -4000,7 +4000,7 @@
       </c>
       <c r="W52" s="15"/>
     </row>
-    <row r="53" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="12" t="s">
         <v>54</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>60</v>
       </c>
       <c r="J53" s="15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K53" s="15" t="s">
         <v>60</v>
@@ -4056,7 +4056,7 @@
         <v>60</v>
       </c>
       <c r="S53" s="15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T53" s="15" t="n">
         <v>10</v>
@@ -4065,7 +4065,7 @@
         <v>999</v>
       </c>
       <c r="V53" s="15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W53" s="15"/>
     </row>
@@ -4138,7 +4138,7 @@
       </c>
       <c r="W54" s="15"/>
     </row>
-    <row r="55" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="12" t="s">
         <v>54</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>60</v>
       </c>
       <c r="J55" s="15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K55" s="15" t="s">
         <v>60</v>
@@ -4194,7 +4194,7 @@
         <v>60</v>
       </c>
       <c r="S55" s="15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T55" s="15" t="n">
         <v>50</v>
@@ -4340,8 +4340,8 @@
       <c r="U57" s="15" t="n">
         <v>999</v>
       </c>
-      <c r="V57" s="15" t="n">
-        <v>6</v>
+      <c r="V57" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="W57" s="15"/>
     </row>
@@ -4409,8 +4409,8 @@
       <c r="U58" s="15" t="n">
         <v>999</v>
       </c>
-      <c r="V58" s="15" t="n">
-        <v>6</v>
+      <c r="V58" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="W58" s="15"/>
     </row>
@@ -4759,7 +4759,7 @@
       </c>
       <c r="W63" s="15"/>
     </row>
-    <row r="64" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="12" t="s">
         <v>54</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>60</v>
       </c>
       <c r="J64" s="15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K64" s="15" t="s">
         <v>60</v>
@@ -4815,7 +4815,7 @@
         <v>60</v>
       </c>
       <c r="S64" s="15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T64" s="15" t="n">
         <v>10</v>
@@ -4824,7 +4824,7 @@
         <v>999</v>
       </c>
       <c r="V64" s="15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W64" s="15"/>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="W65" s="15"/>
     </row>
-    <row r="66" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="12" t="s">
         <v>54</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>60</v>
       </c>
       <c r="J66" s="15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K66" s="15" t="s">
         <v>60</v>
@@ -4953,7 +4953,7 @@
         <v>60</v>
       </c>
       <c r="S66" s="15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T66" s="15" t="n">
         <v>50</v>
@@ -5099,8 +5099,8 @@
       <c r="U68" s="15" t="n">
         <v>999</v>
       </c>
-      <c r="V68" s="15" t="n">
-        <v>6</v>
+      <c r="V68" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="W68" s="15"/>
     </row>
@@ -5168,8 +5168,8 @@
       <c r="U69" s="15" t="n">
         <v>999</v>
       </c>
-      <c r="V69" s="15" t="n">
-        <v>6</v>
+      <c r="V69" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="W69" s="15"/>
     </row>
@@ -5518,7 +5518,7 @@
       </c>
       <c r="W74" s="15"/>
     </row>
-    <row r="75" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="12" t="s">
         <v>54</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>60</v>
       </c>
       <c r="J75" s="15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K75" s="15" t="s">
         <v>60</v>
@@ -5574,7 +5574,7 @@
         <v>60</v>
       </c>
       <c r="S75" s="15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T75" s="15" t="n">
         <v>10</v>
@@ -5583,7 +5583,7 @@
         <v>999</v>
       </c>
       <c r="V75" s="15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W75" s="15"/>
     </row>
@@ -5656,7 +5656,7 @@
       </c>
       <c r="W76" s="15"/>
     </row>
-    <row r="77" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="12" t="s">
         <v>54</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>60</v>
       </c>
       <c r="J77" s="15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K77" s="15" t="s">
         <v>60</v>
@@ -5712,7 +5712,7 @@
         <v>60</v>
       </c>
       <c r="S77" s="15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T77" s="15" t="n">
         <v>50</v>
@@ -5858,8 +5858,8 @@
       <c r="U79" s="15" t="n">
         <v>999</v>
       </c>
-      <c r="V79" s="15" t="n">
-        <v>6</v>
+      <c r="V79" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="W79" s="15"/>
     </row>
@@ -5927,8 +5927,8 @@
       <c r="U80" s="15" t="n">
         <v>999</v>
       </c>
-      <c r="V80" s="15" t="n">
-        <v>6</v>
+      <c r="V80" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="W80" s="15"/>
     </row>

--- a/src/main/resources/com/relative/brecreditosnuevos/matrices/Plazos.xlsx
+++ b/src/main/resources/com/relative/brecreditosnuevos/matrices/Plazos.xlsx
@@ -604,8 +604,8 @@
   </sheetPr>
   <dimension ref="A1:W115"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M24" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U28" activeCellId="0" sqref="U28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L55" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T81" activeCellId="0" sqref="T81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2541,7 +2541,7 @@
         <v>68</v>
       </c>
       <c r="T31" s="15" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="U31" s="15" t="n">
         <v>999</v>
@@ -3300,7 +3300,7 @@
         <v>68</v>
       </c>
       <c r="T42" s="15" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="U42" s="15" t="n">
         <v>999</v>
@@ -4059,7 +4059,7 @@
         <v>68</v>
       </c>
       <c r="T53" s="15" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="U53" s="15" t="n">
         <v>999</v>
@@ -4818,7 +4818,7 @@
         <v>68</v>
       </c>
       <c r="T64" s="15" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="U64" s="15" t="n">
         <v>999</v>
@@ -5577,7 +5577,7 @@
         <v>68</v>
       </c>
       <c r="T75" s="15" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="U75" s="15" t="n">
         <v>999</v>

--- a/src/main/resources/com/relative/brecreditosnuevos/matrices/Plazos.xlsx
+++ b/src/main/resources/com/relative/brecreditosnuevos/matrices/Plazos.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MBF\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86579611-78A2-48BD-BAAC-92DB7AB4CA78}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$8:$W$81</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,53 +28,53 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author> </author>
+    <author/>
   </authors>
   <commentList>
-    <comment ref="D8" authorId="0">
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Se declara una variable que contendra un listado de las opciones de renovacion que tiene el cliente.</t>
+          <t>Se declara una variable que contendra un listado de las opciones de renovacion que tiene el cliente.</t>
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0">
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Se declara una variable que contendra un listado de las opciones de renovacion que tiene el cliente.</t>
+          <t>Se declara una variable que contendra un listado de las opciones de renovacion que tiene el cliente.</t>
         </r>
       </text>
     </comment>
-    <comment ref="W8" authorId="0">
+    <comment ref="W8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Esta accion no lleva valor del parametro y debe ir al final de las demas acciones ya que realiza cada accion anterior por cada opcion de renovacion del cliente , cada una de estas opciones de renovacion las llena en una lista de opciones de renovacion para al final ser presentadas al cliente.</t>
+          <t>Esta accion no lleva valor del parametro y debe ir al final de las demas acciones ya que realiza cada accion anterior por cada opcion de renovacion del cliente , cada una de estas opciones de renovacion las llena en una lista de opciones de renovacion para al final ser presentadas al cliente.</t>
         </r>
       </text>
     </comment>
@@ -77,46 +85,46 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="73">
   <si>
-    <t xml:space="preserve">RuleSet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plazos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Import</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.relative.brecreditosnuevos.objetosnegocio.Cliente,com.relative.brecreditosnuevos.objetosnegocio.Opcion,com.relative.brecreditosnuevos.objetosnegocio.OpcionesRenovacion,com.relative.brecreditosnuevos.objetosnegocio.VariablesNegocio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RuleTable Plazos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RULEFLOW-GROUP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONDITION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACTION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cliente:Cliente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">opcionRenovacion:OpcionesRenovacion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">variablesNegocio:VariablesNegocio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cliente.getCartera()=="$param"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$param</t>
-  </si>
-  <si>
-    <t xml:space="preserve">variablesNegocio.getTotalGarantia()&gt;=$param</t>
+    <t>RuleSet</t>
+  </si>
+  <si>
+    <t>Plazos</t>
+  </si>
+  <si>
+    <t>Import</t>
+  </si>
+  <si>
+    <t>com.relative.brecreditosnuevos.objetosnegocio.Cliente,com.relative.brecreditosnuevos.objetosnegocio.Opcion,com.relative.brecreditosnuevos.objetosnegocio.OpcionesRenovacion,com.relative.brecreditosnuevos.objetosnegocio.VariablesNegocio</t>
+  </si>
+  <si>
+    <t>RuleTable Plazos</t>
+  </si>
+  <si>
+    <t>RULEFLOW-GROUP</t>
+  </si>
+  <si>
+    <t>CONDITION</t>
+  </si>
+  <si>
+    <t>ACTION</t>
+  </si>
+  <si>
+    <t>cliente:Cliente</t>
+  </si>
+  <si>
+    <t>opcionRenovacion:OpcionesRenovacion</t>
+  </si>
+  <si>
+    <t>variablesNegocio:VariablesNegocio</t>
+  </si>
+  <si>
+    <t>cliente.getCartera()=="$param"</t>
+  </si>
+  <si>
+    <t>$param</t>
+  </si>
+  <si>
+    <t>variablesNegocio.getTotalGarantia()&gt;=$param</t>
   </si>
   <si>
     <t xml:space="preserve">Opcion opcion=new Opcion();opcion.setPlazo(Integer.valueOf($param));
@@ -167,176 +175,158 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">opcion.setFormaPagoValoracion("$param");</t>
-  </si>
-  <si>
-    <t xml:space="preserve">opcion.setTIPO_OFERTA("$param");</t>
-  </si>
-  <si>
-    <t xml:space="preserve">opcion.setPORCENTAJE_FLUJO_PLANEADO(Integer.valueOf($param));</t>
-  </si>
-  <si>
-    <t xml:space="preserve">opcion.setDIVIDENDO_FLUJO_PLANEADO(Integer.valueOf($param));</t>
-  </si>
-  <si>
-    <t xml:space="preserve">opcion.setDIVIDENDOS_PRORRATEO_SERVICIOS_DIFERIDO("$param");</t>
-  </si>
-  <si>
-    <t xml:space="preserve">opcionRenovacion.getOpcion().add(opcion);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALORES PARAMETRIZADOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRUPO REGLAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARTERA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DECLARACION DE VARIABLE ADICIONAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLAZO OFERTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PERIODO PLAZO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PERIODICIDAD PLAZO</t>
+    <t>opcion.setFormaPagoValoracion("$param");</t>
+  </si>
+  <si>
+    <t>opcion.setTIPO_OFERTA("$param");</t>
+  </si>
+  <si>
+    <t>opcion.setPORCENTAJE_FLUJO_PLANEADO(Integer.valueOf($param));</t>
+  </si>
+  <si>
+    <t>opcion.setDIVIDENDO_FLUJO_PLANEADO(Integer.valueOf($param));</t>
+  </si>
+  <si>
+    <t>opcion.setDIVIDENDOS_PRORRATEO_SERVICIOS_DIFERIDO("$param");</t>
+  </si>
+  <si>
+    <t>opcionRenovacion.getOpcion().add(opcion);</t>
+  </si>
+  <si>
+    <t>VALORES PARAMETRIZADOS</t>
+  </si>
+  <si>
+    <t>GRUPO REGLAS</t>
+  </si>
+  <si>
+    <t>CARTERA</t>
+  </si>
+  <si>
+    <t>DECLARACION DE VARIABLE ADICIONAL</t>
+  </si>
+  <si>
+    <t>PLAZO OFERTA</t>
+  </si>
+  <si>
+    <t>PERIODO PLAZO</t>
+  </si>
+  <si>
+    <t>PERIODICIDAD PLAZO</t>
   </si>
   <si>
     <t xml:space="preserve">FORMA PAGO CAPITAL </t>
   </si>
   <si>
-    <t xml:space="preserve">FORMA PAGO CUSTODIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FORMA PAGO FIDEICOMISO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FORMA PAGO INTERES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FORMA PAGO MORA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FORMA PAGO GASTO COBRANZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FORMA PAGO SEGURO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FORMA PAGO TASADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FORMA PAGO TRANSPORTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FORMA PAGO VALORACION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIPO OFERTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PORCENTAJE FLUJO PLANEADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIVIDENDO FLUJO PLANEADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIVIDENDOS PRORRATEO SERVICIOS DIFERIDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INGRESO DE OPCION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALOR DE OPCIONES DE PLAZOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GrupoPlazos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MO3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">true</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MO6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QSK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QSK2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MO5</t>
+    <t>FORMA PAGO CUSTODIA</t>
+  </si>
+  <si>
+    <t>FORMA PAGO FIDEICOMISO</t>
+  </si>
+  <si>
+    <t>FORMA PAGO INTERES</t>
+  </si>
+  <si>
+    <t>FORMA PAGO MORA</t>
+  </si>
+  <si>
+    <t>FORMA PAGO GASTO COBRANZA</t>
+  </si>
+  <si>
+    <t>FORMA PAGO SEGURO</t>
+  </si>
+  <si>
+    <t>FORMA PAGO TASADOR</t>
+  </si>
+  <si>
+    <t>FORMA PAGO TRANSPORTE</t>
+  </si>
+  <si>
+    <t>FORMA PAGO VALORACION</t>
+  </si>
+  <si>
+    <t>TIPO OFERTA</t>
+  </si>
+  <si>
+    <t>PORCENTAJE FLUJO PLANEADO</t>
+  </si>
+  <si>
+    <t>DIVIDENDO FLUJO PLANEADO</t>
+  </si>
+  <si>
+    <t>DIVIDENDOS PRORRATEO SERVICIOS DIFERIDO</t>
+  </si>
+  <si>
+    <t>INGRESO DE OPCION</t>
+  </si>
+  <si>
+    <t>VALOR DE OPCIONES DE PLAZOS</t>
+  </si>
+  <si>
+    <t>GrupoPlazos</t>
+  </si>
+  <si>
+    <t>MO3</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>MO6</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>NUE</t>
+  </si>
+  <si>
+    <t>QSK</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>QSK2</t>
+  </si>
+  <si>
+    <t>MOR</t>
+  </si>
+  <si>
+    <t>MO2</t>
+  </si>
+  <si>
+    <t>MO5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -346,7 +336,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -354,7 +344,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
@@ -413,127 +403,98 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -592,31 +553,491 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1030" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EF4BF55-0595-4655-BA8E-9749D5709097}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1028" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C10EE9D8-11F8-4F65-828B-CF754BE32334}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57BC1962-BFF3-43F5-A276-1D8FDA13F196}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:W115"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W81"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L55" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T81" activeCellId="0" sqref="T81"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="20.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="4" style="0" width="20.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="24" style="0" width="11.55"/>
+    <col min="1" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="23" width="20.7109375" customWidth="1"/>
+    <col min="24" max="1025" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -645,7 +1066,7 @@
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -670,7 +1091,7 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -699,7 +1120,7 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>4</v>
@@ -726,7 +1147,7 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
         <v>5</v>
@@ -795,7 +1216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
@@ -826,7 +1247,7 @@
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:23" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="3"/>
       <c r="C7" s="6" t="s">
@@ -893,7 +1314,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" s="11" customFormat="true" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:23" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>32</v>
       </c>
@@ -964,7 +1385,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" s="11" customFormat="true" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>54</v>
       </c>
@@ -977,10 +1398,10 @@
       <c r="D9" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="15" t="n">
+      <c r="E9" s="14">
+        <v>0</v>
+      </c>
+      <c r="F9" s="15">
         <v>2</v>
       </c>
       <c r="G9" s="15" t="s">
@@ -1022,18 +1443,18 @@
       <c r="S9" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="T9" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V9" s="15" t="n">
+      <c r="T9" s="15">
+        <v>0</v>
+      </c>
+      <c r="U9" s="15">
+        <v>999</v>
+      </c>
+      <c r="V9" s="15">
         <v>0</v>
       </c>
       <c r="W9" s="15"/>
     </row>
-    <row r="10" s="11" customFormat="true" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>54</v>
       </c>
@@ -1046,10 +1467,10 @@
       <c r="D10" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="15" t="n">
+      <c r="E10" s="14">
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
         <v>3</v>
       </c>
       <c r="G10" s="15" t="s">
@@ -1091,18 +1512,18 @@
       <c r="S10" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="T10" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V10" s="15" t="n">
+      <c r="T10" s="15">
+        <v>0</v>
+      </c>
+      <c r="U10" s="15">
+        <v>999</v>
+      </c>
+      <c r="V10" s="15">
         <v>0</v>
       </c>
       <c r="W10" s="15"/>
     </row>
-    <row r="11" s="11" customFormat="true" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>54</v>
       </c>
@@ -1115,10 +1536,10 @@
       <c r="D11" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="15" t="n">
+      <c r="E11" s="14">
+        <v>0</v>
+      </c>
+      <c r="F11" s="15">
         <v>4</v>
       </c>
       <c r="G11" s="15" t="s">
@@ -1160,18 +1581,18 @@
       <c r="S11" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="T11" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V11" s="15" t="n">
+      <c r="T11" s="15">
+        <v>0</v>
+      </c>
+      <c r="U11" s="15">
+        <v>999</v>
+      </c>
+      <c r="V11" s="15">
         <v>0</v>
       </c>
       <c r="W11" s="15"/>
     </row>
-    <row r="12" s="11" customFormat="true" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>54</v>
       </c>
@@ -1184,10 +1605,10 @@
       <c r="D12" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="15" t="n">
+      <c r="E12" s="14">
+        <v>0</v>
+      </c>
+      <c r="F12" s="15">
         <v>6</v>
       </c>
       <c r="G12" s="15" t="s">
@@ -1229,18 +1650,18 @@
       <c r="S12" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="T12" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V12" s="15" t="n">
+      <c r="T12" s="15">
+        <v>0</v>
+      </c>
+      <c r="U12" s="15">
+        <v>999</v>
+      </c>
+      <c r="V12" s="15">
         <v>0</v>
       </c>
       <c r="W12" s="15"/>
     </row>
-    <row r="13" s="11" customFormat="true" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>54</v>
       </c>
@@ -1253,10 +1674,10 @@
       <c r="D13" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="15" t="n">
+      <c r="E13" s="14">
+        <v>0</v>
+      </c>
+      <c r="F13" s="15">
         <v>9</v>
       </c>
       <c r="G13" s="15" t="s">
@@ -1298,18 +1719,18 @@
       <c r="S13" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="T13" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V13" s="15" t="n">
+      <c r="T13" s="15">
+        <v>0</v>
+      </c>
+      <c r="U13" s="15">
+        <v>999</v>
+      </c>
+      <c r="V13" s="15">
         <v>0</v>
       </c>
       <c r="W13" s="15"/>
     </row>
-    <row r="14" s="11" customFormat="true" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>54</v>
       </c>
@@ -1322,10 +1743,10 @@
       <c r="D14" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="15" t="n">
+      <c r="E14" s="14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="15">
         <v>12</v>
       </c>
       <c r="G14" s="15" t="s">
@@ -1367,18 +1788,18 @@
       <c r="S14" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="T14" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V14" s="15" t="n">
+      <c r="T14" s="15">
+        <v>0</v>
+      </c>
+      <c r="U14" s="15">
+        <v>999</v>
+      </c>
+      <c r="V14" s="15">
         <v>0</v>
       </c>
       <c r="W14" s="15"/>
     </row>
-    <row r="15" s="11" customFormat="true" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>54</v>
       </c>
@@ -1391,10 +1812,10 @@
       <c r="D15" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="14" t="n">
+      <c r="E15" s="14">
         <v>1500</v>
       </c>
-      <c r="F15" s="15" t="n">
+      <c r="F15" s="15">
         <v>18</v>
       </c>
       <c r="G15" s="15" t="s">
@@ -1436,18 +1857,18 @@
       <c r="S15" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="T15" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V15" s="15" t="n">
+      <c r="T15" s="15">
+        <v>0</v>
+      </c>
+      <c r="U15" s="15">
+        <v>999</v>
+      </c>
+      <c r="V15" s="15">
         <v>0</v>
       </c>
       <c r="W15" s="15"/>
     </row>
-    <row r="16" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>54</v>
       </c>
@@ -1460,10 +1881,10 @@
       <c r="D16" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="15" t="n">
+      <c r="E16" s="14">
+        <v>0</v>
+      </c>
+      <c r="F16" s="15">
         <v>7</v>
       </c>
       <c r="G16" s="15" t="s">
@@ -1505,18 +1926,18 @@
       <c r="S16" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="T16" s="15" t="n">
+      <c r="T16" s="15">
         <v>90</v>
       </c>
-      <c r="U16" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V16" s="15" t="n">
+      <c r="U16" s="15">
+        <v>999</v>
+      </c>
+      <c r="V16" s="15">
         <v>6</v>
       </c>
       <c r="W16" s="15"/>
     </row>
-    <row r="17" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>54</v>
       </c>
@@ -1529,10 +1950,10 @@
       <c r="D17" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="15" t="n">
+      <c r="E17" s="14">
+        <v>0</v>
+      </c>
+      <c r="F17" s="15">
         <v>11</v>
       </c>
       <c r="G17" s="15" t="s">
@@ -1574,18 +1995,18 @@
       <c r="S17" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="T17" s="15" t="n">
+      <c r="T17" s="15">
         <v>50</v>
       </c>
-      <c r="U17" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V17" s="15" t="n">
+      <c r="U17" s="15">
+        <v>999</v>
+      </c>
+      <c r="V17" s="15">
         <v>0</v>
       </c>
       <c r="W17" s="15"/>
     </row>
-    <row r="18" s="11" customFormat="true" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>54</v>
       </c>
@@ -1598,10 +2019,10 @@
       <c r="D18" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="15" t="n">
+      <c r="E18" s="14">
+        <v>0</v>
+      </c>
+      <c r="F18" s="15">
         <v>2</v>
       </c>
       <c r="G18" s="15" t="s">
@@ -1643,18 +2064,18 @@
       <c r="S18" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="T18" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V18" s="15" t="n">
+      <c r="T18" s="15">
+        <v>0</v>
+      </c>
+      <c r="U18" s="15">
+        <v>999</v>
+      </c>
+      <c r="V18" s="15">
         <v>0</v>
       </c>
       <c r="W18" s="15"/>
     </row>
-    <row r="19" s="11" customFormat="true" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>54</v>
       </c>
@@ -1667,10 +2088,10 @@
       <c r="D19" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="15" t="n">
+      <c r="E19" s="14">
+        <v>0</v>
+      </c>
+      <c r="F19" s="15">
         <v>3</v>
       </c>
       <c r="G19" s="15" t="s">
@@ -1712,18 +2133,18 @@
       <c r="S19" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="T19" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V19" s="15" t="n">
+      <c r="T19" s="15">
+        <v>0</v>
+      </c>
+      <c r="U19" s="15">
+        <v>999</v>
+      </c>
+      <c r="V19" s="15">
         <v>0</v>
       </c>
       <c r="W19" s="15"/>
     </row>
-    <row r="20" s="11" customFormat="true" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>54</v>
       </c>
@@ -1736,10 +2157,10 @@
       <c r="D20" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="15" t="n">
+      <c r="E20" s="14">
+        <v>0</v>
+      </c>
+      <c r="F20" s="15">
         <v>4</v>
       </c>
       <c r="G20" s="15" t="s">
@@ -1781,18 +2202,18 @@
       <c r="S20" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="T20" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V20" s="15" t="n">
+      <c r="T20" s="15">
+        <v>0</v>
+      </c>
+      <c r="U20" s="15">
+        <v>999</v>
+      </c>
+      <c r="V20" s="15">
         <v>0</v>
       </c>
       <c r="W20" s="15"/>
     </row>
-    <row r="21" s="11" customFormat="true" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>54</v>
       </c>
@@ -1805,10 +2226,10 @@
       <c r="D21" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="15" t="n">
+      <c r="E21" s="14">
+        <v>0</v>
+      </c>
+      <c r="F21" s="15">
         <v>6</v>
       </c>
       <c r="G21" s="15" t="s">
@@ -1850,18 +2271,18 @@
       <c r="S21" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="T21" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V21" s="15" t="n">
+      <c r="T21" s="15">
+        <v>0</v>
+      </c>
+      <c r="U21" s="15">
+        <v>999</v>
+      </c>
+      <c r="V21" s="15">
         <v>0</v>
       </c>
       <c r="W21" s="15"/>
     </row>
-    <row r="22" s="11" customFormat="true" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>54</v>
       </c>
@@ -1874,10 +2295,10 @@
       <c r="D22" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="15" t="n">
+      <c r="E22" s="14">
+        <v>0</v>
+      </c>
+      <c r="F22" s="15">
         <v>9</v>
       </c>
       <c r="G22" s="15" t="s">
@@ -1919,18 +2340,18 @@
       <c r="S22" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="T22" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V22" s="15" t="n">
+      <c r="T22" s="15">
+        <v>0</v>
+      </c>
+      <c r="U22" s="15">
+        <v>999</v>
+      </c>
+      <c r="V22" s="15">
         <v>0</v>
       </c>
       <c r="W22" s="15"/>
     </row>
-    <row r="23" s="11" customFormat="true" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>54</v>
       </c>
@@ -1943,10 +2364,10 @@
       <c r="D23" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="15" t="n">
+      <c r="E23" s="14">
+        <v>0</v>
+      </c>
+      <c r="F23" s="15">
         <v>12</v>
       </c>
       <c r="G23" s="15" t="s">
@@ -1988,18 +2409,18 @@
       <c r="S23" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="T23" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V23" s="15" t="n">
+      <c r="T23" s="15">
+        <v>0</v>
+      </c>
+      <c r="U23" s="15">
+        <v>999</v>
+      </c>
+      <c r="V23" s="15">
         <v>0</v>
       </c>
       <c r="W23" s="15"/>
     </row>
-    <row r="24" s="11" customFormat="true" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>54</v>
       </c>
@@ -2012,10 +2433,10 @@
       <c r="D24" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="14" t="n">
+      <c r="E24" s="14">
         <v>1500</v>
       </c>
-      <c r="F24" s="15" t="n">
+      <c r="F24" s="15">
         <v>18</v>
       </c>
       <c r="G24" s="15" t="s">
@@ -2057,18 +2478,18 @@
       <c r="S24" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="T24" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V24" s="15" t="n">
+      <c r="T24" s="15">
+        <v>0</v>
+      </c>
+      <c r="U24" s="15">
+        <v>999</v>
+      </c>
+      <c r="V24" s="15">
         <v>0</v>
       </c>
       <c r="W24" s="15"/>
     </row>
-    <row r="25" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>54</v>
       </c>
@@ -2081,10 +2502,10 @@
       <c r="D25" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E25" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="15" t="n">
+      <c r="E25" s="14">
+        <v>0</v>
+      </c>
+      <c r="F25" s="15">
         <v>7</v>
       </c>
       <c r="G25" s="15" t="s">
@@ -2126,18 +2547,18 @@
       <c r="S25" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="T25" s="15" t="n">
+      <c r="T25" s="15">
         <v>90</v>
       </c>
-      <c r="U25" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V25" s="15" t="n">
+      <c r="U25" s="15">
+        <v>999</v>
+      </c>
+      <c r="V25" s="15">
         <v>6</v>
       </c>
       <c r="W25" s="15"/>
     </row>
-    <row r="26" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>54</v>
       </c>
@@ -2150,10 +2571,10 @@
       <c r="D26" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="15" t="n">
+      <c r="E26" s="14">
+        <v>0</v>
+      </c>
+      <c r="F26" s="15">
         <v>11</v>
       </c>
       <c r="G26" s="15" t="s">
@@ -2195,18 +2616,18 @@
       <c r="S26" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="T26" s="15" t="n">
+      <c r="T26" s="15">
         <v>50</v>
       </c>
-      <c r="U26" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V26" s="15" t="n">
+      <c r="U26" s="15">
+        <v>999</v>
+      </c>
+      <c r="V26" s="15">
         <v>0</v>
       </c>
       <c r="W26" s="15"/>
     </row>
-    <row r="27" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>54</v>
       </c>
@@ -2219,10 +2640,10 @@
       <c r="D27" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="14" t="n">
-        <v>399</v>
-      </c>
-      <c r="F27" s="15" t="n">
+      <c r="E27" s="14">
+        <v>0</v>
+      </c>
+      <c r="F27" s="15">
         <v>2</v>
       </c>
       <c r="G27" s="15" t="s">
@@ -2264,18 +2685,18 @@
       <c r="S27" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="T27" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V27" s="15" t="n">
+      <c r="T27" s="15">
+        <v>0</v>
+      </c>
+      <c r="U27" s="15">
+        <v>999</v>
+      </c>
+      <c r="V27" s="15">
         <v>0</v>
       </c>
       <c r="W27" s="15"/>
     </row>
-    <row r="28" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>54</v>
       </c>
@@ -2288,10 +2709,10 @@
       <c r="D28" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E28" s="14" t="n">
-        <v>399</v>
-      </c>
-      <c r="F28" s="15" t="n">
+      <c r="E28" s="14">
+        <v>0</v>
+      </c>
+      <c r="F28" s="15">
         <v>3</v>
       </c>
       <c r="G28" s="15" t="s">
@@ -2333,18 +2754,18 @@
       <c r="S28" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="T28" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V28" s="15" t="n">
+      <c r="T28" s="15">
+        <v>0</v>
+      </c>
+      <c r="U28" s="15">
+        <v>999</v>
+      </c>
+      <c r="V28" s="15">
         <v>0</v>
       </c>
       <c r="W28" s="15"/>
     </row>
-    <row r="29" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>54</v>
       </c>
@@ -2357,10 +2778,10 @@
       <c r="D29" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="15" t="n">
+      <c r="E29" s="14">
+        <v>0</v>
+      </c>
+      <c r="F29" s="15">
         <v>4</v>
       </c>
       <c r="G29" s="15" t="s">
@@ -2402,18 +2823,18 @@
       <c r="S29" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="T29" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V29" s="15" t="n">
+      <c r="T29" s="15">
+        <v>0</v>
+      </c>
+      <c r="U29" s="15">
+        <v>999</v>
+      </c>
+      <c r="V29" s="15">
         <v>0</v>
       </c>
       <c r="W29" s="15"/>
     </row>
-    <row r="30" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>54</v>
       </c>
@@ -2426,10 +2847,10 @@
       <c r="D30" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="15" t="n">
+      <c r="E30" s="14">
+        <v>0</v>
+      </c>
+      <c r="F30" s="15">
         <v>6</v>
       </c>
       <c r="G30" s="15" t="s">
@@ -2471,18 +2892,18 @@
       <c r="S30" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="T30" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U30" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V30" s="15" t="n">
+      <c r="T30" s="15">
+        <v>0</v>
+      </c>
+      <c r="U30" s="15">
+        <v>999</v>
+      </c>
+      <c r="V30" s="15">
         <v>0</v>
       </c>
       <c r="W30" s="15"/>
     </row>
-    <row r="31" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>54</v>
       </c>
@@ -2495,10 +2916,10 @@
       <c r="D31" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="15" t="n">
+      <c r="E31" s="14">
+        <v>0</v>
+      </c>
+      <c r="F31" s="15">
         <v>7</v>
       </c>
       <c r="G31" s="15" t="s">
@@ -2540,18 +2961,18 @@
       <c r="S31" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="T31" s="15" t="n">
+      <c r="T31" s="15">
         <v>90</v>
       </c>
-      <c r="U31" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V31" s="15" t="n">
+      <c r="U31" s="15">
+        <v>999</v>
+      </c>
+      <c r="V31" s="15">
         <v>6</v>
       </c>
       <c r="W31" s="15"/>
     </row>
-    <row r="32" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>54</v>
       </c>
@@ -2564,10 +2985,10 @@
       <c r="D32" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="15" t="n">
+      <c r="E32" s="14">
+        <v>0</v>
+      </c>
+      <c r="F32" s="15">
         <v>9</v>
       </c>
       <c r="G32" s="15" t="s">
@@ -2609,18 +3030,18 @@
       <c r="S32" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="T32" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V32" s="15" t="n">
+      <c r="T32" s="15">
+        <v>0</v>
+      </c>
+      <c r="U32" s="15">
+        <v>999</v>
+      </c>
+      <c r="V32" s="15">
         <v>0</v>
       </c>
       <c r="W32" s="15"/>
     </row>
-    <row r="33" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>54</v>
       </c>
@@ -2633,10 +3054,10 @@
       <c r="D33" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E33" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="15" t="n">
+      <c r="E33" s="14">
+        <v>0</v>
+      </c>
+      <c r="F33" s="15">
         <v>11</v>
       </c>
       <c r="G33" s="15" t="s">
@@ -2678,18 +3099,18 @@
       <c r="S33" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="T33" s="15" t="n">
+      <c r="T33" s="15">
         <v>50</v>
       </c>
-      <c r="U33" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V33" s="15" t="n">
+      <c r="U33" s="15">
+        <v>999</v>
+      </c>
+      <c r="V33" s="15">
         <v>0</v>
       </c>
       <c r="W33" s="15"/>
     </row>
-    <row r="34" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>54</v>
       </c>
@@ -2702,10 +3123,10 @@
       <c r="D34" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E34" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="15" t="n">
+      <c r="E34" s="14">
+        <v>0</v>
+      </c>
+      <c r="F34" s="15">
         <v>12</v>
       </c>
       <c r="G34" s="15" t="s">
@@ -2747,18 +3168,18 @@
       <c r="S34" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="T34" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V34" s="15" t="n">
+      <c r="T34" s="15">
+        <v>0</v>
+      </c>
+      <c r="U34" s="15">
+        <v>999</v>
+      </c>
+      <c r="V34" s="15">
         <v>0</v>
       </c>
       <c r="W34" s="15"/>
     </row>
-    <row r="35" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>54</v>
       </c>
@@ -2771,10 +3192,10 @@
       <c r="D35" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E35" s="14" t="n">
-        <v>500</v>
-      </c>
-      <c r="F35" s="15" t="n">
+      <c r="E35" s="14">
+        <v>0</v>
+      </c>
+      <c r="F35" s="15">
         <v>13</v>
       </c>
       <c r="G35" s="15" t="s">
@@ -2816,10 +3237,10 @@
       <c r="S35" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="T35" s="15" t="n">
+      <c r="T35" s="15">
         <v>75</v>
       </c>
-      <c r="U35" s="15" t="n">
+      <c r="U35" s="15">
         <v>999</v>
       </c>
       <c r="V35" s="15" t="s">
@@ -2827,7 +3248,7 @@
       </c>
       <c r="W35" s="15"/>
     </row>
-    <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>54</v>
       </c>
@@ -2840,10 +3261,10 @@
       <c r="D36" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E36" s="14" t="n">
-        <v>500</v>
-      </c>
-      <c r="F36" s="15" t="n">
+      <c r="E36" s="14">
+        <v>0</v>
+      </c>
+      <c r="F36" s="15">
         <v>13</v>
       </c>
       <c r="G36" s="15" t="s">
@@ -2885,10 +3306,10 @@
       <c r="S36" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="T36" s="15" t="n">
+      <c r="T36" s="15">
         <v>25</v>
       </c>
-      <c r="U36" s="15" t="n">
+      <c r="U36" s="15">
         <v>999</v>
       </c>
       <c r="V36" s="15" t="s">
@@ -2896,7 +3317,7 @@
       </c>
       <c r="W36" s="15"/>
     </row>
-    <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>54</v>
       </c>
@@ -2909,10 +3330,10 @@
       <c r="D37" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="15" t="n">
+      <c r="E37" s="14">
+        <v>0</v>
+      </c>
+      <c r="F37" s="15">
         <v>18</v>
       </c>
       <c r="G37" s="15" t="s">
@@ -2954,18 +3375,18 @@
       <c r="S37" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="T37" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V37" s="15" t="n">
+      <c r="T37" s="15">
+        <v>0</v>
+      </c>
+      <c r="U37" s="15">
+        <v>999</v>
+      </c>
+      <c r="V37" s="15">
         <v>0</v>
       </c>
       <c r="W37" s="15"/>
     </row>
-    <row r="38" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>54</v>
       </c>
@@ -2978,10 +3399,10 @@
       <c r="D38" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E38" s="14" t="n">
-        <v>399</v>
-      </c>
-      <c r="F38" s="15" t="n">
+      <c r="E38" s="14">
+        <v>0</v>
+      </c>
+      <c r="F38" s="15">
         <v>2</v>
       </c>
       <c r="G38" s="15" t="s">
@@ -3023,18 +3444,18 @@
       <c r="S38" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="T38" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V38" s="15" t="n">
+      <c r="T38" s="15">
+        <v>0</v>
+      </c>
+      <c r="U38" s="15">
+        <v>999</v>
+      </c>
+      <c r="V38" s="15">
         <v>0</v>
       </c>
       <c r="W38" s="15"/>
     </row>
-    <row r="39" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>54</v>
       </c>
@@ -3047,10 +3468,10 @@
       <c r="D39" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E39" s="14" t="n">
-        <v>399</v>
-      </c>
-      <c r="F39" s="15" t="n">
+      <c r="E39" s="14">
+        <v>0</v>
+      </c>
+      <c r="F39" s="15">
         <v>3</v>
       </c>
       <c r="G39" s="15" t="s">
@@ -3092,18 +3513,18 @@
       <c r="S39" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="T39" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U39" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V39" s="15" t="n">
+      <c r="T39" s="15">
+        <v>0</v>
+      </c>
+      <c r="U39" s="15">
+        <v>999</v>
+      </c>
+      <c r="V39" s="15">
         <v>0</v>
       </c>
       <c r="W39" s="15"/>
     </row>
-    <row r="40" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>54</v>
       </c>
@@ -3116,10 +3537,10 @@
       <c r="D40" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E40" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" s="15" t="n">
+      <c r="E40" s="14">
+        <v>0</v>
+      </c>
+      <c r="F40" s="15">
         <v>4</v>
       </c>
       <c r="G40" s="15" t="s">
@@ -3161,18 +3582,18 @@
       <c r="S40" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="T40" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V40" s="15" t="n">
+      <c r="T40" s="15">
+        <v>0</v>
+      </c>
+      <c r="U40" s="15">
+        <v>999</v>
+      </c>
+      <c r="V40" s="15">
         <v>0</v>
       </c>
       <c r="W40" s="15"/>
     </row>
-    <row r="41" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>54</v>
       </c>
@@ -3185,10 +3606,10 @@
       <c r="D41" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E41" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" s="15" t="n">
+      <c r="E41" s="14">
+        <v>0</v>
+      </c>
+      <c r="F41" s="15">
         <v>6</v>
       </c>
       <c r="G41" s="15" t="s">
@@ -3230,18 +3651,18 @@
       <c r="S41" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="T41" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V41" s="15" t="n">
+      <c r="T41" s="15">
+        <v>0</v>
+      </c>
+      <c r="U41" s="15">
+        <v>999</v>
+      </c>
+      <c r="V41" s="15">
         <v>0</v>
       </c>
       <c r="W41" s="15"/>
     </row>
-    <row r="42" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>54</v>
       </c>
@@ -3254,10 +3675,10 @@
       <c r="D42" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E42" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" s="15" t="n">
+      <c r="E42" s="14">
+        <v>0</v>
+      </c>
+      <c r="F42" s="15">
         <v>7</v>
       </c>
       <c r="G42" s="15" t="s">
@@ -3299,18 +3720,18 @@
       <c r="S42" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="T42" s="15" t="n">
+      <c r="T42" s="15">
         <v>90</v>
       </c>
-      <c r="U42" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V42" s="15" t="n">
+      <c r="U42" s="15">
+        <v>999</v>
+      </c>
+      <c r="V42" s="15">
         <v>6</v>
       </c>
       <c r="W42" s="15"/>
     </row>
-    <row r="43" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>54</v>
       </c>
@@ -3323,10 +3744,10 @@
       <c r="D43" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" s="15" t="n">
+      <c r="E43" s="14">
+        <v>0</v>
+      </c>
+      <c r="F43" s="15">
         <v>9</v>
       </c>
       <c r="G43" s="15" t="s">
@@ -3368,18 +3789,18 @@
       <c r="S43" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="T43" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V43" s="15" t="n">
+      <c r="T43" s="15">
+        <v>0</v>
+      </c>
+      <c r="U43" s="15">
+        <v>999</v>
+      </c>
+      <c r="V43" s="15">
         <v>0</v>
       </c>
       <c r="W43" s="15"/>
     </row>
-    <row r="44" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>54</v>
       </c>
@@ -3392,10 +3813,10 @@
       <c r="D44" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E44" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" s="15" t="n">
+      <c r="E44" s="14">
+        <v>0</v>
+      </c>
+      <c r="F44" s="15">
         <v>11</v>
       </c>
       <c r="G44" s="15" t="s">
@@ -3437,18 +3858,18 @@
       <c r="S44" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="T44" s="15" t="n">
+      <c r="T44" s="15">
         <v>50</v>
       </c>
-      <c r="U44" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V44" s="15" t="n">
+      <c r="U44" s="15">
+        <v>999</v>
+      </c>
+      <c r="V44" s="15">
         <v>0</v>
       </c>
       <c r="W44" s="15"/>
     </row>
-    <row r="45" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>54</v>
       </c>
@@ -3461,10 +3882,10 @@
       <c r="D45" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" s="15" t="n">
+      <c r="E45" s="14">
+        <v>0</v>
+      </c>
+      <c r="F45" s="15">
         <v>12</v>
       </c>
       <c r="G45" s="15" t="s">
@@ -3506,18 +3927,18 @@
       <c r="S45" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="T45" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U45" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V45" s="15" t="n">
+      <c r="T45" s="15">
+        <v>0</v>
+      </c>
+      <c r="U45" s="15">
+        <v>999</v>
+      </c>
+      <c r="V45" s="15">
         <v>0</v>
       </c>
       <c r="W45" s="15"/>
     </row>
-    <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>54</v>
       </c>
@@ -3530,10 +3951,10 @@
       <c r="D46" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E46" s="14" t="n">
-        <v>500</v>
-      </c>
-      <c r="F46" s="15" t="n">
+      <c r="E46" s="14">
+        <v>0</v>
+      </c>
+      <c r="F46" s="15">
         <v>13</v>
       </c>
       <c r="G46" s="15" t="s">
@@ -3575,10 +3996,10 @@
       <c r="S46" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="T46" s="15" t="n">
+      <c r="T46" s="15">
         <v>75</v>
       </c>
-      <c r="U46" s="15" t="n">
+      <c r="U46" s="15">
         <v>999</v>
       </c>
       <c r="V46" s="15" t="s">
@@ -3586,7 +4007,7 @@
       </c>
       <c r="W46" s="15"/>
     </row>
-    <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>54</v>
       </c>
@@ -3599,10 +4020,10 @@
       <c r="D47" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E47" s="14" t="n">
-        <v>500</v>
-      </c>
-      <c r="F47" s="15" t="n">
+      <c r="E47" s="14">
+        <v>0</v>
+      </c>
+      <c r="F47" s="15">
         <v>13</v>
       </c>
       <c r="G47" s="15" t="s">
@@ -3644,10 +4065,10 @@
       <c r="S47" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="T47" s="15" t="n">
+      <c r="T47" s="15">
         <v>25</v>
       </c>
-      <c r="U47" s="15" t="n">
+      <c r="U47" s="15">
         <v>999</v>
       </c>
       <c r="V47" s="15" t="s">
@@ -3655,7 +4076,7 @@
       </c>
       <c r="W47" s="15"/>
     </row>
-    <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>54</v>
       </c>
@@ -3668,10 +4089,10 @@
       <c r="D48" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E48" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" s="15" t="n">
+      <c r="E48" s="14">
+        <v>0</v>
+      </c>
+      <c r="F48" s="15">
         <v>18</v>
       </c>
       <c r="G48" s="15" t="s">
@@ -3713,18 +4134,18 @@
       <c r="S48" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="T48" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U48" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V48" s="15" t="n">
+      <c r="T48" s="15">
+        <v>0</v>
+      </c>
+      <c r="U48" s="15">
+        <v>999</v>
+      </c>
+      <c r="V48" s="15">
         <v>0</v>
       </c>
       <c r="W48" s="15"/>
     </row>
-    <row r="49" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>54</v>
       </c>
@@ -3737,10 +4158,10 @@
       <c r="D49" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E49" s="14" t="n">
-        <v>399</v>
-      </c>
-      <c r="F49" s="15" t="n">
+      <c r="E49" s="14">
+        <v>0</v>
+      </c>
+      <c r="F49" s="15">
         <v>2</v>
       </c>
       <c r="G49" s="15" t="s">
@@ -3782,18 +4203,18 @@
       <c r="S49" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="T49" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U49" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V49" s="15" t="n">
+      <c r="T49" s="15">
+        <v>0</v>
+      </c>
+      <c r="U49" s="15">
+        <v>999</v>
+      </c>
+      <c r="V49" s="15">
         <v>0</v>
       </c>
       <c r="W49" s="15"/>
     </row>
-    <row r="50" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>54</v>
       </c>
@@ -3806,10 +4227,10 @@
       <c r="D50" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E50" s="14" t="n">
-        <v>399</v>
-      </c>
-      <c r="F50" s="15" t="n">
+      <c r="E50" s="14">
+        <v>0</v>
+      </c>
+      <c r="F50" s="15">
         <v>3</v>
       </c>
       <c r="G50" s="15" t="s">
@@ -3851,18 +4272,18 @@
       <c r="S50" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="T50" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U50" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V50" s="15" t="n">
+      <c r="T50" s="15">
+        <v>0</v>
+      </c>
+      <c r="U50" s="15">
+        <v>999</v>
+      </c>
+      <c r="V50" s="15">
         <v>0</v>
       </c>
       <c r="W50" s="15"/>
     </row>
-    <row r="51" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
         <v>54</v>
       </c>
@@ -3875,10 +4296,10 @@
       <c r="D51" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E51" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" s="15" t="n">
+      <c r="E51" s="14">
+        <v>0</v>
+      </c>
+      <c r="F51" s="15">
         <v>4</v>
       </c>
       <c r="G51" s="15" t="s">
@@ -3920,18 +4341,18 @@
       <c r="S51" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="T51" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U51" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V51" s="15" t="n">
+      <c r="T51" s="15">
+        <v>0</v>
+      </c>
+      <c r="U51" s="15">
+        <v>999</v>
+      </c>
+      <c r="V51" s="15">
         <v>0</v>
       </c>
       <c r="W51" s="15"/>
     </row>
-    <row r="52" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>54</v>
       </c>
@@ -3944,10 +4365,10 @@
       <c r="D52" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E52" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" s="15" t="n">
+      <c r="E52" s="14">
+        <v>0</v>
+      </c>
+      <c r="F52" s="15">
         <v>6</v>
       </c>
       <c r="G52" s="15" t="s">
@@ -3989,18 +4410,18 @@
       <c r="S52" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="T52" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U52" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V52" s="15" t="n">
+      <c r="T52" s="15">
+        <v>0</v>
+      </c>
+      <c r="U52" s="15">
+        <v>999</v>
+      </c>
+      <c r="V52" s="15">
         <v>0</v>
       </c>
       <c r="W52" s="15"/>
     </row>
-    <row r="53" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>54</v>
       </c>
@@ -4013,10 +4434,10 @@
       <c r="D53" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E53" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" s="15" t="n">
+      <c r="E53" s="14">
+        <v>0</v>
+      </c>
+      <c r="F53" s="15">
         <v>7</v>
       </c>
       <c r="G53" s="15" t="s">
@@ -4058,18 +4479,18 @@
       <c r="S53" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="T53" s="15" t="n">
+      <c r="T53" s="15">
         <v>90</v>
       </c>
-      <c r="U53" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V53" s="15" t="n">
+      <c r="U53" s="15">
+        <v>999</v>
+      </c>
+      <c r="V53" s="15">
         <v>6</v>
       </c>
       <c r="W53" s="15"/>
     </row>
-    <row r="54" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>54</v>
       </c>
@@ -4082,10 +4503,10 @@
       <c r="D54" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E54" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" s="15" t="n">
+      <c r="E54" s="14">
+        <v>0</v>
+      </c>
+      <c r="F54" s="15">
         <v>9</v>
       </c>
       <c r="G54" s="15" t="s">
@@ -4127,18 +4548,18 @@
       <c r="S54" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="T54" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U54" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V54" s="15" t="n">
+      <c r="T54" s="15">
+        <v>0</v>
+      </c>
+      <c r="U54" s="15">
+        <v>999</v>
+      </c>
+      <c r="V54" s="15">
         <v>0</v>
       </c>
       <c r="W54" s="15"/>
     </row>
-    <row r="55" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>54</v>
       </c>
@@ -4151,10 +4572,10 @@
       <c r="D55" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E55" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" s="15" t="n">
+      <c r="E55" s="14">
+        <v>0</v>
+      </c>
+      <c r="F55" s="15">
         <v>11</v>
       </c>
       <c r="G55" s="15" t="s">
@@ -4196,18 +4617,18 @@
       <c r="S55" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="T55" s="15" t="n">
+      <c r="T55" s="15">
         <v>50</v>
       </c>
-      <c r="U55" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V55" s="15" t="n">
+      <c r="U55" s="15">
+        <v>999</v>
+      </c>
+      <c r="V55" s="15">
         <v>0</v>
       </c>
       <c r="W55" s="15"/>
     </row>
-    <row r="56" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
         <v>54</v>
       </c>
@@ -4220,10 +4641,10 @@
       <c r="D56" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E56" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" s="15" t="n">
+      <c r="E56" s="14">
+        <v>0</v>
+      </c>
+      <c r="F56" s="15">
         <v>12</v>
       </c>
       <c r="G56" s="15" t="s">
@@ -4265,18 +4686,18 @@
       <c r="S56" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="T56" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U56" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V56" s="15" t="n">
+      <c r="T56" s="15">
+        <v>0</v>
+      </c>
+      <c r="U56" s="15">
+        <v>999</v>
+      </c>
+      <c r="V56" s="15">
         <v>0</v>
       </c>
       <c r="W56" s="15"/>
     </row>
-    <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>54</v>
       </c>
@@ -4289,10 +4710,10 @@
       <c r="D57" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E57" s="14" t="n">
-        <v>500</v>
-      </c>
-      <c r="F57" s="15" t="n">
+      <c r="E57" s="14">
+        <v>0</v>
+      </c>
+      <c r="F57" s="15">
         <v>13</v>
       </c>
       <c r="G57" s="15" t="s">
@@ -4334,10 +4755,10 @@
       <c r="S57" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="T57" s="15" t="n">
+      <c r="T57" s="15">
         <v>75</v>
       </c>
-      <c r="U57" s="15" t="n">
+      <c r="U57" s="15">
         <v>999</v>
       </c>
       <c r="V57" s="15" t="s">
@@ -4345,7 +4766,7 @@
       </c>
       <c r="W57" s="15"/>
     </row>
-    <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
         <v>54</v>
       </c>
@@ -4358,10 +4779,10 @@
       <c r="D58" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E58" s="14" t="n">
-        <v>500</v>
-      </c>
-      <c r="F58" s="15" t="n">
+      <c r="E58" s="14">
+        <v>0</v>
+      </c>
+      <c r="F58" s="15">
         <v>13</v>
       </c>
       <c r="G58" s="15" t="s">
@@ -4403,10 +4824,10 @@
       <c r="S58" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="T58" s="15" t="n">
+      <c r="T58" s="15">
         <v>25</v>
       </c>
-      <c r="U58" s="15" t="n">
+      <c r="U58" s="15">
         <v>999</v>
       </c>
       <c r="V58" s="15" t="s">
@@ -4414,7 +4835,7 @@
       </c>
       <c r="W58" s="15"/>
     </row>
-    <row r="59" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>54</v>
       </c>
@@ -4427,10 +4848,10 @@
       <c r="D59" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E59" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" s="15" t="n">
+      <c r="E59" s="14">
+        <v>0</v>
+      </c>
+      <c r="F59" s="15">
         <v>18</v>
       </c>
       <c r="G59" s="15" t="s">
@@ -4472,18 +4893,18 @@
       <c r="S59" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="T59" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U59" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V59" s="15" t="n">
+      <c r="T59" s="15">
+        <v>0</v>
+      </c>
+      <c r="U59" s="15">
+        <v>999</v>
+      </c>
+      <c r="V59" s="15">
         <v>0</v>
       </c>
       <c r="W59" s="15"/>
     </row>
-    <row r="60" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
         <v>54</v>
       </c>
@@ -4496,10 +4917,10 @@
       <c r="D60" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E60" s="14" t="n">
-        <v>399</v>
-      </c>
-      <c r="F60" s="15" t="n">
+      <c r="E60" s="14">
+        <v>0</v>
+      </c>
+      <c r="F60" s="15">
         <v>2</v>
       </c>
       <c r="G60" s="15" t="s">
@@ -4541,18 +4962,18 @@
       <c r="S60" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="T60" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U60" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V60" s="15" t="n">
+      <c r="T60" s="15">
+        <v>0</v>
+      </c>
+      <c r="U60" s="15">
+        <v>999</v>
+      </c>
+      <c r="V60" s="15">
         <v>0</v>
       </c>
       <c r="W60" s="15"/>
     </row>
-    <row r="61" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
         <v>54</v>
       </c>
@@ -4565,10 +4986,10 @@
       <c r="D61" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E61" s="14" t="n">
-        <v>399</v>
-      </c>
-      <c r="F61" s="15" t="n">
+      <c r="E61" s="14">
+        <v>0</v>
+      </c>
+      <c r="F61" s="15">
         <v>3</v>
       </c>
       <c r="G61" s="15" t="s">
@@ -4610,18 +5031,18 @@
       <c r="S61" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="T61" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U61" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V61" s="15" t="n">
+      <c r="T61" s="15">
+        <v>0</v>
+      </c>
+      <c r="U61" s="15">
+        <v>999</v>
+      </c>
+      <c r="V61" s="15">
         <v>0</v>
       </c>
       <c r="W61" s="15"/>
     </row>
-    <row r="62" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
         <v>54</v>
       </c>
@@ -4634,10 +5055,10 @@
       <c r="D62" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E62" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" s="15" t="n">
+      <c r="E62" s="14">
+        <v>0</v>
+      </c>
+      <c r="F62" s="15">
         <v>4</v>
       </c>
       <c r="G62" s="15" t="s">
@@ -4679,18 +5100,18 @@
       <c r="S62" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="T62" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U62" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V62" s="15" t="n">
+      <c r="T62" s="15">
+        <v>0</v>
+      </c>
+      <c r="U62" s="15">
+        <v>999</v>
+      </c>
+      <c r="V62" s="15">
         <v>0</v>
       </c>
       <c r="W62" s="15"/>
     </row>
-    <row r="63" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
         <v>54</v>
       </c>
@@ -4703,10 +5124,10 @@
       <c r="D63" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E63" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" s="15" t="n">
+      <c r="E63" s="14">
+        <v>0</v>
+      </c>
+      <c r="F63" s="15">
         <v>6</v>
       </c>
       <c r="G63" s="15" t="s">
@@ -4748,18 +5169,18 @@
       <c r="S63" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="T63" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U63" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V63" s="15" t="n">
+      <c r="T63" s="15">
+        <v>0</v>
+      </c>
+      <c r="U63" s="15">
+        <v>999</v>
+      </c>
+      <c r="V63" s="15">
         <v>0</v>
       </c>
       <c r="W63" s="15"/>
     </row>
-    <row r="64" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
         <v>54</v>
       </c>
@@ -4772,10 +5193,10 @@
       <c r="D64" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E64" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" s="15" t="n">
+      <c r="E64" s="14">
+        <v>0</v>
+      </c>
+      <c r="F64" s="15">
         <v>7</v>
       </c>
       <c r="G64" s="15" t="s">
@@ -4817,18 +5238,18 @@
       <c r="S64" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="T64" s="15" t="n">
+      <c r="T64" s="15">
         <v>90</v>
       </c>
-      <c r="U64" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V64" s="15" t="n">
+      <c r="U64" s="15">
+        <v>999</v>
+      </c>
+      <c r="V64" s="15">
         <v>6</v>
       </c>
       <c r="W64" s="15"/>
     </row>
-    <row r="65" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
         <v>54</v>
       </c>
@@ -4841,10 +5262,10 @@
       <c r="D65" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E65" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" s="15" t="n">
+      <c r="E65" s="14">
+        <v>0</v>
+      </c>
+      <c r="F65" s="15">
         <v>9</v>
       </c>
       <c r="G65" s="15" t="s">
@@ -4886,18 +5307,18 @@
       <c r="S65" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="T65" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U65" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V65" s="15" t="n">
+      <c r="T65" s="15">
+        <v>0</v>
+      </c>
+      <c r="U65" s="15">
+        <v>999</v>
+      </c>
+      <c r="V65" s="15">
         <v>0</v>
       </c>
       <c r="W65" s="15"/>
     </row>
-    <row r="66" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
         <v>54</v>
       </c>
@@ -4910,10 +5331,10 @@
       <c r="D66" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E66" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" s="15" t="n">
+      <c r="E66" s="14">
+        <v>0</v>
+      </c>
+      <c r="F66" s="15">
         <v>11</v>
       </c>
       <c r="G66" s="15" t="s">
@@ -4955,18 +5376,18 @@
       <c r="S66" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="T66" s="15" t="n">
+      <c r="T66" s="15">
         <v>50</v>
       </c>
-      <c r="U66" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V66" s="15" t="n">
+      <c r="U66" s="15">
+        <v>999</v>
+      </c>
+      <c r="V66" s="15">
         <v>0</v>
       </c>
       <c r="W66" s="15"/>
     </row>
-    <row r="67" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>54</v>
       </c>
@@ -4979,10 +5400,10 @@
       <c r="D67" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E67" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" s="15" t="n">
+      <c r="E67" s="14">
+        <v>0</v>
+      </c>
+      <c r="F67" s="15">
         <v>12</v>
       </c>
       <c r="G67" s="15" t="s">
@@ -5024,18 +5445,18 @@
       <c r="S67" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="T67" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U67" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V67" s="15" t="n">
+      <c r="T67" s="15">
+        <v>0</v>
+      </c>
+      <c r="U67" s="15">
+        <v>999</v>
+      </c>
+      <c r="V67" s="15">
         <v>0</v>
       </c>
       <c r="W67" s="15"/>
     </row>
-    <row r="68" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
         <v>54</v>
       </c>
@@ -5048,10 +5469,10 @@
       <c r="D68" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E68" s="14" t="n">
-        <v>500</v>
-      </c>
-      <c r="F68" s="15" t="n">
+      <c r="E68" s="14">
+        <v>0</v>
+      </c>
+      <c r="F68" s="15">
         <v>13</v>
       </c>
       <c r="G68" s="15" t="s">
@@ -5093,10 +5514,10 @@
       <c r="S68" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="T68" s="15" t="n">
+      <c r="T68" s="15">
         <v>75</v>
       </c>
-      <c r="U68" s="15" t="n">
+      <c r="U68" s="15">
         <v>999</v>
       </c>
       <c r="V68" s="15" t="s">
@@ -5104,7 +5525,7 @@
       </c>
       <c r="W68" s="15"/>
     </row>
-    <row r="69" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
         <v>54</v>
       </c>
@@ -5117,10 +5538,10 @@
       <c r="D69" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E69" s="14" t="n">
-        <v>500</v>
-      </c>
-      <c r="F69" s="15" t="n">
+      <c r="E69" s="14">
+        <v>0</v>
+      </c>
+      <c r="F69" s="15">
         <v>13</v>
       </c>
       <c r="G69" s="15" t="s">
@@ -5162,10 +5583,10 @@
       <c r="S69" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="T69" s="15" t="n">
+      <c r="T69" s="15">
         <v>25</v>
       </c>
-      <c r="U69" s="15" t="n">
+      <c r="U69" s="15">
         <v>999</v>
       </c>
       <c r="V69" s="15" t="s">
@@ -5173,7 +5594,7 @@
       </c>
       <c r="W69" s="15"/>
     </row>
-    <row r="70" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
         <v>54</v>
       </c>
@@ -5186,10 +5607,10 @@
       <c r="D70" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E70" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" s="15" t="n">
+      <c r="E70" s="14">
+        <v>0</v>
+      </c>
+      <c r="F70" s="15">
         <v>18</v>
       </c>
       <c r="G70" s="15" t="s">
@@ -5231,18 +5652,18 @@
       <c r="S70" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="T70" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U70" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V70" s="15" t="n">
+      <c r="T70" s="15">
+        <v>0</v>
+      </c>
+      <c r="U70" s="15">
+        <v>999</v>
+      </c>
+      <c r="V70" s="15">
         <v>0</v>
       </c>
       <c r="W70" s="15"/>
     </row>
-    <row r="71" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
         <v>54</v>
       </c>
@@ -5255,10 +5676,10 @@
       <c r="D71" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E71" s="14" t="n">
-        <v>399</v>
-      </c>
-      <c r="F71" s="15" t="n">
+      <c r="E71" s="14">
+        <v>0</v>
+      </c>
+      <c r="F71" s="15">
         <v>2</v>
       </c>
       <c r="G71" s="15" t="s">
@@ -5300,18 +5721,18 @@
       <c r="S71" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="T71" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U71" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V71" s="15" t="n">
+      <c r="T71" s="15">
+        <v>0</v>
+      </c>
+      <c r="U71" s="15">
+        <v>999</v>
+      </c>
+      <c r="V71" s="15">
         <v>0</v>
       </c>
       <c r="W71" s="15"/>
     </row>
-    <row r="72" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
         <v>54</v>
       </c>
@@ -5324,10 +5745,10 @@
       <c r="D72" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E72" s="14" t="n">
-        <v>399</v>
-      </c>
-      <c r="F72" s="15" t="n">
+      <c r="E72" s="14">
+        <v>0</v>
+      </c>
+      <c r="F72" s="15">
         <v>3</v>
       </c>
       <c r="G72" s="15" t="s">
@@ -5369,18 +5790,18 @@
       <c r="S72" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="T72" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U72" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V72" s="15" t="n">
+      <c r="T72" s="15">
+        <v>0</v>
+      </c>
+      <c r="U72" s="15">
+        <v>999</v>
+      </c>
+      <c r="V72" s="15">
         <v>0</v>
       </c>
       <c r="W72" s="15"/>
     </row>
-    <row r="73" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
         <v>54</v>
       </c>
@@ -5393,10 +5814,10 @@
       <c r="D73" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E73" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F73" s="15" t="n">
+      <c r="E73" s="14">
+        <v>0</v>
+      </c>
+      <c r="F73" s="15">
         <v>4</v>
       </c>
       <c r="G73" s="15" t="s">
@@ -5438,18 +5859,18 @@
       <c r="S73" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="T73" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U73" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V73" s="15" t="n">
+      <c r="T73" s="15">
+        <v>0</v>
+      </c>
+      <c r="U73" s="15">
+        <v>999</v>
+      </c>
+      <c r="V73" s="15">
         <v>0</v>
       </c>
       <c r="W73" s="15"/>
     </row>
-    <row r="74" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
         <v>54</v>
       </c>
@@ -5462,10 +5883,10 @@
       <c r="D74" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E74" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" s="15" t="n">
+      <c r="E74" s="14">
+        <v>0</v>
+      </c>
+      <c r="F74" s="15">
         <v>6</v>
       </c>
       <c r="G74" s="15" t="s">
@@ -5507,18 +5928,18 @@
       <c r="S74" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="T74" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U74" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V74" s="15" t="n">
+      <c r="T74" s="15">
+        <v>0</v>
+      </c>
+      <c r="U74" s="15">
+        <v>999</v>
+      </c>
+      <c r="V74" s="15">
         <v>0</v>
       </c>
       <c r="W74" s="15"/>
     </row>
-    <row r="75" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
         <v>54</v>
       </c>
@@ -5531,10 +5952,10 @@
       <c r="D75" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E75" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F75" s="15" t="n">
+      <c r="E75" s="14">
+        <v>0</v>
+      </c>
+      <c r="F75" s="15">
         <v>7</v>
       </c>
       <c r="G75" s="15" t="s">
@@ -5576,18 +5997,18 @@
       <c r="S75" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="T75" s="15" t="n">
+      <c r="T75" s="15">
         <v>90</v>
       </c>
-      <c r="U75" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V75" s="15" t="n">
+      <c r="U75" s="15">
+        <v>999</v>
+      </c>
+      <c r="V75" s="15">
         <v>6</v>
       </c>
       <c r="W75" s="15"/>
     </row>
-    <row r="76" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
         <v>54</v>
       </c>
@@ -5600,10 +6021,10 @@
       <c r="D76" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E76" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F76" s="15" t="n">
+      <c r="E76" s="14">
+        <v>0</v>
+      </c>
+      <c r="F76" s="15">
         <v>9</v>
       </c>
       <c r="G76" s="15" t="s">
@@ -5645,18 +6066,18 @@
       <c r="S76" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="T76" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U76" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V76" s="15" t="n">
+      <c r="T76" s="15">
+        <v>0</v>
+      </c>
+      <c r="U76" s="15">
+        <v>999</v>
+      </c>
+      <c r="V76" s="15">
         <v>0</v>
       </c>
       <c r="W76" s="15"/>
     </row>
-    <row r="77" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
         <v>54</v>
       </c>
@@ -5669,10 +6090,10 @@
       <c r="D77" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E77" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F77" s="15" t="n">
+      <c r="E77" s="14">
+        <v>0</v>
+      </c>
+      <c r="F77" s="15">
         <v>11</v>
       </c>
       <c r="G77" s="15" t="s">
@@ -5714,18 +6135,18 @@
       <c r="S77" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="T77" s="15" t="n">
+      <c r="T77" s="15">
         <v>50</v>
       </c>
-      <c r="U77" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V77" s="15" t="n">
+      <c r="U77" s="15">
+        <v>999</v>
+      </c>
+      <c r="V77" s="15">
         <v>0</v>
       </c>
       <c r="W77" s="15"/>
     </row>
-    <row r="78" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
         <v>54</v>
       </c>
@@ -5738,10 +6159,10 @@
       <c r="D78" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E78" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F78" s="15" t="n">
+      <c r="E78" s="14">
+        <v>0</v>
+      </c>
+      <c r="F78" s="15">
         <v>12</v>
       </c>
       <c r="G78" s="15" t="s">
@@ -5783,18 +6204,18 @@
       <c r="S78" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="T78" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U78" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V78" s="15" t="n">
+      <c r="T78" s="15">
+        <v>0</v>
+      </c>
+      <c r="U78" s="15">
+        <v>999</v>
+      </c>
+      <c r="V78" s="15">
         <v>0</v>
       </c>
       <c r="W78" s="15"/>
     </row>
-    <row r="79" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
         <v>54</v>
       </c>
@@ -5807,10 +6228,10 @@
       <c r="D79" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E79" s="14" t="n">
-        <v>500</v>
-      </c>
-      <c r="F79" s="15" t="n">
+      <c r="E79" s="14">
+        <v>0</v>
+      </c>
+      <c r="F79" s="15">
         <v>13</v>
       </c>
       <c r="G79" s="15" t="s">
@@ -5852,10 +6273,10 @@
       <c r="S79" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="T79" s="15" t="n">
+      <c r="T79" s="15">
         <v>75</v>
       </c>
-      <c r="U79" s="15" t="n">
+      <c r="U79" s="15">
         <v>999</v>
       </c>
       <c r="V79" s="15" t="s">
@@ -5863,7 +6284,7 @@
       </c>
       <c r="W79" s="15"/>
     </row>
-    <row r="80" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
         <v>54</v>
       </c>
@@ -5876,10 +6297,10 @@
       <c r="D80" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E80" s="14" t="n">
-        <v>500</v>
-      </c>
-      <c r="F80" s="15" t="n">
+      <c r="E80" s="14">
+        <v>0</v>
+      </c>
+      <c r="F80" s="15">
         <v>13</v>
       </c>
       <c r="G80" s="15" t="s">
@@ -5921,10 +6342,10 @@
       <c r="S80" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="T80" s="15" t="n">
+      <c r="T80" s="15">
         <v>25</v>
       </c>
-      <c r="U80" s="15" t="n">
+      <c r="U80" s="15">
         <v>999</v>
       </c>
       <c r="V80" s="15" t="s">
@@ -5932,7 +6353,7 @@
       </c>
       <c r="W80" s="15"/>
     </row>
-    <row r="81" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="s">
         <v>54</v>
       </c>
@@ -5945,10 +6366,10 @@
       <c r="D81" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E81" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F81" s="15" t="n">
+      <c r="E81" s="14">
+        <v>0</v>
+      </c>
+      <c r="F81" s="15">
         <v>18</v>
       </c>
       <c r="G81" s="15" t="s">
@@ -5990,26 +6411,21 @@
       <c r="S81" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="T81" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U81" s="15" t="n">
-        <v>999</v>
-      </c>
-      <c r="V81" s="15" t="n">
+      <c r="T81" s="15">
+        <v>0</v>
+      </c>
+      <c r="U81" s="15">
+        <v>999</v>
+      </c>
+      <c r="V81" s="15">
         <v>0</v>
       </c>
       <c r="W81" s="15"/>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>